--- a/Assets/Excel/ExcelData.xlsx
+++ b/Assets/Excel/ExcelData.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2024\GitHub\FreeSummerFes\Assets\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A97C3C2-4BCC-4B2E-9B28-AB3D12AA9001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Gun" sheetId="1" r:id="rId1"/>
+    <sheet name="Gun" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,69 +20,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
-    <t>id</t>
+    <t xml:space="preserve">id</t>
   </si>
   <si>
-    <t>gunName</t>
-    <phoneticPr fontId="1"/>
+    <t xml:space="preserve">gunName</t>
   </si>
   <si>
-    <t>CorkGun</t>
-    <phoneticPr fontId="1"/>
+    <t xml:space="preserve">bulletPower</t>
   </si>
   <si>
-    <t>AirGun</t>
-    <phoneticPr fontId="1"/>
+    <t xml:space="preserve">displayName</t>
   </si>
   <si>
-    <t>RichAirGun</t>
-    <phoneticPr fontId="1"/>
+    <t xml:space="preserve">a</t>
   </si>
   <si>
-    <t>Pistol</t>
-    <phoneticPr fontId="1"/>
+    <t xml:space="preserve">コルク銃</t>
   </si>
   <si>
-    <t>bulletPower</t>
-    <phoneticPr fontId="1"/>
+    <t xml:space="preserve">エアガン</t>
   </si>
   <si>
-    <t>displayName</t>
-    <phoneticPr fontId="1"/>
+    <t xml:space="preserve">高級エアガン</t>
   </si>
   <si>
-    <t>コルク銃</t>
-    <rPh sb="3" eb="4">
-      <t>ジュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+    <t xml:space="preserve">Pistol</t>
   </si>
   <si>
-    <t>エアガン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>高級エアガン</t>
-    <rPh sb="0" eb="2">
-      <t>コウキュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>拳銃</t>
-    <rPh sb="0" eb="2">
-      <t>ケンジュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+    <t xml:space="preserve">拳銃</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -96,9 +68,21 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="6"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -111,7 +95,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -119,362 +103,89 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:J239"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:D5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.625" customWidth="1"/>
-    <col min="2" max="2" width="12.625" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="18.125" customWidth="1"/>
-    <col min="5" max="1018" width="8.625" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.63"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1018" min="5" style="0" width="8.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1019" style="0" width="8.61"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>6</v>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>7</v>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -483,18 +194,18 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="2">
+    <row r="2" customFormat="false" ht="52.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
+      <c r="D2" s="0" t="s">
+        <v>5</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -503,18 +214,18 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="2">
+    <row r="3" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="0" t="n">
         <v>1500</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
+      <c r="D3" s="0" t="s">
+        <v>6</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -523,18 +234,18 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="2">
+    <row r="4" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="0" t="n">
         <v>2000</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
+      <c r="D4" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -543,18 +254,18 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="2">
+    <row r="5" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="0" t="n">
         <v>3000</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
+      <c r="D5" s="0" t="s">
+        <v>9</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -563,7 +274,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -575,7 +286,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -587,7 +298,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -599,7 +310,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -611,7 +322,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -623,11 +334,11 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="2"/>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -639,7 +350,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -651,7 +362,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -663,7 +374,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -675,7 +386,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -687,11 +398,11 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -703,7 +414,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -715,7 +426,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -727,7 +438,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -739,7 +450,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -751,11 +462,11 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="2"/>
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -767,7 +478,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -779,7 +490,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -791,7 +502,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -803,7 +514,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -815,11 +526,11 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="2"/>
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -831,7 +542,7 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -843,7 +554,7 @@
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -855,7 +566,7 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -867,7 +578,7 @@
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -879,11 +590,11 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="2"/>
       <c r="B35" s="1"/>
     </row>
-    <row r="36" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -895,7 +606,7 @@
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
     </row>
-    <row r="37" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -907,7 +618,7 @@
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -919,7 +630,7 @@
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -931,7 +642,7 @@
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -943,11 +654,11 @@
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="2"/>
       <c r="B41" s="1"/>
     </row>
-    <row r="42" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -959,7 +670,7 @@
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -971,7 +682,7 @@
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -983,7 +694,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -995,7 +706,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1007,11 +718,11 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="2"/>
       <c r="B47" s="1"/>
     </row>
-    <row r="48" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1023,7 +734,7 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1035,7 +746,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -1047,7 +758,7 @@
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1059,7 +770,7 @@
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
     </row>
-    <row r="52" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1071,11 +782,11 @@
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
     </row>
-    <row r="53" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="2"/>
       <c r="B53" s="1"/>
     </row>
-    <row r="54" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1087,7 +798,7 @@
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
     </row>
-    <row r="55" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1099,7 +810,7 @@
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
     </row>
-    <row r="56" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -1111,7 +822,7 @@
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
     </row>
-    <row r="57" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1123,7 +834,7 @@
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
     </row>
-    <row r="58" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -1135,11 +846,11 @@
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
     </row>
-    <row r="59" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="2"/>
       <c r="B59" s="1"/>
     </row>
-    <row r="60" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -1151,7 +862,7 @@
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
     </row>
-    <row r="61" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1163,7 +874,7 @@
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
     </row>
-    <row r="62" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1175,7 +886,7 @@
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
     </row>
-    <row r="63" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -1187,7 +898,7 @@
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
     </row>
-    <row r="64" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -1199,11 +910,11 @@
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
     </row>
-    <row r="65" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="2"/>
       <c r="B65" s="1"/>
     </row>
-    <row r="66" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -1215,7 +926,7 @@
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
     </row>
-    <row r="67" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -1227,7 +938,7 @@
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
     </row>
-    <row r="68" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -1239,7 +950,7 @@
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
     </row>
-    <row r="69" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -1251,7 +962,7 @@
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
     </row>
-    <row r="70" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -1263,11 +974,11 @@
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
     </row>
-    <row r="71" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="2"/>
       <c r="B71" s="1"/>
     </row>
-    <row r="72" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -1279,7 +990,7 @@
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
     </row>
-    <row r="73" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -1291,7 +1002,7 @@
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
     </row>
-    <row r="74" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -1303,7 +1014,7 @@
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
     </row>
-    <row r="75" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -1315,7 +1026,7 @@
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
     </row>
-    <row r="76" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -1327,11 +1038,11 @@
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
     </row>
-    <row r="77" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="2"/>
       <c r="B77" s="1"/>
     </row>
-    <row r="78" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -1343,7 +1054,7 @@
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
     </row>
-    <row r="79" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -1355,7 +1066,7 @@
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
     </row>
-    <row r="80" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -1367,7 +1078,7 @@
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
     </row>
-    <row r="81" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -1379,7 +1090,7 @@
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
     </row>
-    <row r="82" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -1391,11 +1102,11 @@
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
     </row>
-    <row r="83" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="2"/>
       <c r="B83" s="1"/>
     </row>
-    <row r="84" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -1407,7 +1118,7 @@
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
     </row>
-    <row r="85" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -1419,7 +1130,7 @@
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
     </row>
-    <row r="86" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -1431,7 +1142,7 @@
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
     </row>
-    <row r="87" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -1443,7 +1154,7 @@
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
     </row>
-    <row r="88" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -1455,11 +1166,11 @@
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
     </row>
-    <row r="89" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="2"/>
       <c r="B89" s="1"/>
     </row>
-    <row r="90" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -1471,7 +1182,7 @@
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
     </row>
-    <row r="91" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -1483,7 +1194,7 @@
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
     </row>
-    <row r="92" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -1495,7 +1206,7 @@
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
     </row>
-    <row r="93" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -1507,7 +1218,7 @@
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
     </row>
-    <row r="94" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -1519,11 +1230,11 @@
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
     </row>
-    <row r="95" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="2"/>
       <c r="B95" s="1"/>
     </row>
-    <row r="96" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -1535,7 +1246,7 @@
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
     </row>
-    <row r="97" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -1547,7 +1258,7 @@
       <c r="I97" s="2"/>
       <c r="J97" s="2"/>
     </row>
-    <row r="98" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -1559,7 +1270,7 @@
       <c r="I98" s="2"/>
       <c r="J98" s="2"/>
     </row>
-    <row r="99" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -1571,7 +1282,7 @@
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
     </row>
-    <row r="100" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -1583,11 +1294,11 @@
       <c r="I100" s="2"/>
       <c r="J100" s="2"/>
     </row>
-    <row r="101" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="2"/>
       <c r="B101" s="1"/>
     </row>
-    <row r="102" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -1599,7 +1310,7 @@
       <c r="I102" s="2"/>
       <c r="J102" s="2"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="103" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -1611,7 +1322,7 @@
       <c r="I103" s="2"/>
       <c r="J103" s="2"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="104" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -1623,7 +1334,7 @@
       <c r="I104" s="2"/>
       <c r="J104" s="2"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="105" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -1635,7 +1346,7 @@
       <c r="I105" s="2"/>
       <c r="J105" s="2"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="106" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -1647,11 +1358,11 @@
       <c r="I106" s="2"/>
       <c r="J106" s="2"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="107" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2"/>
       <c r="B107" s="1"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="108" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -1663,7 +1374,7 @@
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="109" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -1675,7 +1386,7 @@
       <c r="I109" s="2"/>
       <c r="J109" s="2"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="110" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -1687,7 +1398,7 @@
       <c r="I110" s="2"/>
       <c r="J110" s="2"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="111" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -1699,7 +1410,7 @@
       <c r="I111" s="2"/>
       <c r="J111" s="2"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="112" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -1711,11 +1422,11 @@
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="113" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2"/>
       <c r="B113" s="1"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="114" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -1727,7 +1438,7 @@
       <c r="I114" s="2"/>
       <c r="J114" s="2"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="115" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -1739,7 +1450,7 @@
       <c r="I115" s="2"/>
       <c r="J115" s="2"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="116" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -1751,7 +1462,7 @@
       <c r="I116" s="2"/>
       <c r="J116" s="2"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="117" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -1763,7 +1474,7 @@
       <c r="I117" s="2"/>
       <c r="J117" s="2"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="118" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -1775,11 +1486,11 @@
       <c r="I118" s="2"/>
       <c r="J118" s="2"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="119" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2"/>
       <c r="B119" s="1"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="120" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -1791,7 +1502,7 @@
       <c r="I120" s="2"/>
       <c r="J120" s="2"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="121" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -1803,7 +1514,7 @@
       <c r="I121" s="2"/>
       <c r="J121" s="2"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="122" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -1815,7 +1526,7 @@
       <c r="I122" s="2"/>
       <c r="J122" s="2"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="123" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -1827,7 +1538,7 @@
       <c r="I123" s="2"/>
       <c r="J123" s="2"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="124" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -1839,11 +1550,11 @@
       <c r="I124" s="2"/>
       <c r="J124" s="2"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="125" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="2"/>
       <c r="B125" s="1"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="126" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -1855,7 +1566,7 @@
       <c r="I126" s="2"/>
       <c r="J126" s="2"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="127" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -1867,7 +1578,7 @@
       <c r="I127" s="2"/>
       <c r="J127" s="2"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="128" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -1879,7 +1590,7 @@
       <c r="I128" s="2"/>
       <c r="J128" s="2"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="129" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -1891,7 +1602,7 @@
       <c r="I129" s="2"/>
       <c r="J129" s="2"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="130" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -1903,11 +1614,11 @@
       <c r="I130" s="2"/>
       <c r="J130" s="2"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="131" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="2"/>
       <c r="B131" s="1"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="132" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -1919,7 +1630,7 @@
       <c r="I132" s="2"/>
       <c r="J132" s="2"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="133" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -1931,7 +1642,7 @@
       <c r="I133" s="2"/>
       <c r="J133" s="2"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="134" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -1943,7 +1654,7 @@
       <c r="I134" s="2"/>
       <c r="J134" s="2"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="135" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -1955,7 +1666,7 @@
       <c r="I135" s="2"/>
       <c r="J135" s="2"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="136" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -1967,11 +1678,11 @@
       <c r="I136" s="2"/>
       <c r="J136" s="2"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="137" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="2"/>
       <c r="B137" s="1"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="138" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -1983,7 +1694,7 @@
       <c r="I138" s="2"/>
       <c r="J138" s="2"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="139" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -1995,7 +1706,7 @@
       <c r="I139" s="2"/>
       <c r="J139" s="2"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="140" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -2007,7 +1718,7 @@
       <c r="I140" s="2"/>
       <c r="J140" s="2"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="141" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -2019,7 +1730,7 @@
       <c r="I141" s="2"/>
       <c r="J141" s="2"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="142" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -2031,11 +1742,11 @@
       <c r="I142" s="2"/>
       <c r="J142" s="2"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="143" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="2"/>
       <c r="B143" s="1"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="144" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -2047,7 +1758,7 @@
       <c r="I144" s="2"/>
       <c r="J144" s="2"/>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="145" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -2059,7 +1770,7 @@
       <c r="I145" s="2"/>
       <c r="J145" s="2"/>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="146" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -2071,7 +1782,7 @@
       <c r="I146" s="2"/>
       <c r="J146" s="2"/>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="147" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -2083,7 +1794,7 @@
       <c r="I147" s="2"/>
       <c r="J147" s="2"/>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="148" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -2095,11 +1806,11 @@
       <c r="I148" s="2"/>
       <c r="J148" s="2"/>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="149" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="2"/>
       <c r="B149" s="1"/>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="150" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -2111,7 +1822,7 @@
       <c r="I150" s="2"/>
       <c r="J150" s="2"/>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="151" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -2123,7 +1834,7 @@
       <c r="I151" s="2"/>
       <c r="J151" s="2"/>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="152" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -2135,7 +1846,7 @@
       <c r="I152" s="2"/>
       <c r="J152" s="2"/>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="153" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -2147,7 +1858,7 @@
       <c r="I153" s="2"/>
       <c r="J153" s="2"/>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="154" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -2159,11 +1870,11 @@
       <c r="I154" s="2"/>
       <c r="J154" s="2"/>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="155" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="2"/>
       <c r="B155" s="1"/>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="156" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -2175,7 +1886,7 @@
       <c r="I156" s="2"/>
       <c r="J156" s="2"/>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="157" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -2187,7 +1898,7 @@
       <c r="I157" s="2"/>
       <c r="J157" s="2"/>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="158" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -2199,7 +1910,7 @@
       <c r="I158" s="2"/>
       <c r="J158" s="2"/>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="159" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -2211,7 +1922,7 @@
       <c r="I159" s="2"/>
       <c r="J159" s="2"/>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="160" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -2223,11 +1934,11 @@
       <c r="I160" s="2"/>
       <c r="J160" s="2"/>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="161" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="2"/>
       <c r="B161" s="1"/>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="162" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -2239,7 +1950,7 @@
       <c r="I162" s="2"/>
       <c r="J162" s="2"/>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="163" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -2251,7 +1962,7 @@
       <c r="I163" s="2"/>
       <c r="J163" s="2"/>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="164" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -2263,7 +1974,7 @@
       <c r="I164" s="2"/>
       <c r="J164" s="2"/>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="165" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -2275,7 +1986,7 @@
       <c r="I165" s="2"/>
       <c r="J165" s="2"/>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="166" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -2287,11 +1998,11 @@
       <c r="I166" s="2"/>
       <c r="J166" s="2"/>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="167" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="2"/>
       <c r="B167" s="1"/>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="168" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -2303,7 +2014,7 @@
       <c r="I168" s="2"/>
       <c r="J168" s="2"/>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="169" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -2315,7 +2026,7 @@
       <c r="I169" s="2"/>
       <c r="J169" s="2"/>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="170" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -2327,7 +2038,7 @@
       <c r="I170" s="2"/>
       <c r="J170" s="2"/>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="171" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -2339,7 +2050,7 @@
       <c r="I171" s="2"/>
       <c r="J171" s="2"/>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="172" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -2351,11 +2062,11 @@
       <c r="I172" s="2"/>
       <c r="J172" s="2"/>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="173" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="2"/>
       <c r="B173" s="1"/>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="174" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -2367,7 +2078,7 @@
       <c r="I174" s="2"/>
       <c r="J174" s="2"/>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="175" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -2379,7 +2090,7 @@
       <c r="I175" s="2"/>
       <c r="J175" s="2"/>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="176" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -2391,7 +2102,7 @@
       <c r="I176" s="2"/>
       <c r="J176" s="2"/>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="177" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -2403,7 +2114,7 @@
       <c r="I177" s="2"/>
       <c r="J177" s="2"/>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="178" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -2415,11 +2126,11 @@
       <c r="I178" s="2"/>
       <c r="J178" s="2"/>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="179" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="2"/>
       <c r="B179" s="1"/>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="180" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -2431,7 +2142,7 @@
       <c r="I180" s="2"/>
       <c r="J180" s="2"/>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="181" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -2443,7 +2154,7 @@
       <c r="I181" s="2"/>
       <c r="J181" s="2"/>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="182" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -2455,7 +2166,7 @@
       <c r="I182" s="2"/>
       <c r="J182" s="2"/>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="183" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -2467,7 +2178,7 @@
       <c r="I183" s="2"/>
       <c r="J183" s="2"/>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="184" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -2479,11 +2190,11 @@
       <c r="I184" s="2"/>
       <c r="J184" s="2"/>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="185" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="2"/>
       <c r="B185" s="1"/>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="186" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -2495,7 +2206,7 @@
       <c r="I186" s="2"/>
       <c r="J186" s="2"/>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="187" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -2507,7 +2218,7 @@
       <c r="I187" s="2"/>
       <c r="J187" s="2"/>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="188" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -2519,7 +2230,7 @@
       <c r="I188" s="2"/>
       <c r="J188" s="2"/>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="189" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -2531,7 +2242,7 @@
       <c r="I189" s="2"/>
       <c r="J189" s="2"/>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="190" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -2543,11 +2254,11 @@
       <c r="I190" s="2"/>
       <c r="J190" s="2"/>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="191" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="2"/>
       <c r="B191" s="1"/>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="192" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -2559,7 +2270,7 @@
       <c r="I192" s="2"/>
       <c r="J192" s="2"/>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="193" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -2571,7 +2282,7 @@
       <c r="I193" s="2"/>
       <c r="J193" s="2"/>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="194" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -2583,7 +2294,7 @@
       <c r="I194" s="2"/>
       <c r="J194" s="2"/>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="195" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -2595,7 +2306,7 @@
       <c r="I195" s="2"/>
       <c r="J195" s="2"/>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="196" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -2607,11 +2318,11 @@
       <c r="I196" s="2"/>
       <c r="J196" s="2"/>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="197" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="2"/>
       <c r="B197" s="1"/>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="198" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -2623,7 +2334,7 @@
       <c r="I198" s="2"/>
       <c r="J198" s="2"/>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="199" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -2635,7 +2346,7 @@
       <c r="I199" s="2"/>
       <c r="J199" s="2"/>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="200" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -2647,7 +2358,7 @@
       <c r="I200" s="2"/>
       <c r="J200" s="2"/>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="201" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -2659,7 +2370,7 @@
       <c r="I201" s="2"/>
       <c r="J201" s="2"/>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="202" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -2671,11 +2382,11 @@
       <c r="I202" s="2"/>
       <c r="J202" s="2"/>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="203" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="2"/>
       <c r="B203" s="1"/>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="204" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -2687,7 +2398,7 @@
       <c r="I204" s="2"/>
       <c r="J204" s="2"/>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="205" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -2699,7 +2410,7 @@
       <c r="I205" s="2"/>
       <c r="J205" s="2"/>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="206" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -2711,7 +2422,7 @@
       <c r="I206" s="2"/>
       <c r="J206" s="2"/>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="207" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -2723,7 +2434,7 @@
       <c r="I207" s="2"/>
       <c r="J207" s="2"/>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="208" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -2735,11 +2446,11 @@
       <c r="I208" s="2"/>
       <c r="J208" s="2"/>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="209" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="2"/>
       <c r="B209" s="1"/>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="210" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -2751,7 +2462,7 @@
       <c r="I210" s="2"/>
       <c r="J210" s="2"/>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="211" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -2763,7 +2474,7 @@
       <c r="I211" s="2"/>
       <c r="J211" s="2"/>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="212" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -2775,7 +2486,7 @@
       <c r="I212" s="2"/>
       <c r="J212" s="2"/>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="213" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -2787,7 +2498,7 @@
       <c r="I213" s="2"/>
       <c r="J213" s="2"/>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="214" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -2799,11 +2510,11 @@
       <c r="I214" s="2"/>
       <c r="J214" s="2"/>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="215" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="2"/>
       <c r="B215" s="1"/>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="216" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -2815,7 +2526,7 @@
       <c r="I216" s="2"/>
       <c r="J216" s="2"/>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="217" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -2827,7 +2538,7 @@
       <c r="I217" s="2"/>
       <c r="J217" s="2"/>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="218" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -2839,7 +2550,7 @@
       <c r="I218" s="2"/>
       <c r="J218" s="2"/>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="219" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -2851,7 +2562,7 @@
       <c r="I219" s="2"/>
       <c r="J219" s="2"/>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="220" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -2863,11 +2574,11 @@
       <c r="I220" s="2"/>
       <c r="J220" s="2"/>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="221" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="2"/>
       <c r="B221" s="1"/>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="222" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -2879,7 +2590,7 @@
       <c r="I222" s="2"/>
       <c r="J222" s="2"/>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="223" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -2891,7 +2602,7 @@
       <c r="I223" s="2"/>
       <c r="J223" s="2"/>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="224" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -2903,7 +2614,7 @@
       <c r="I224" s="2"/>
       <c r="J224" s="2"/>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="225" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -2915,7 +2626,7 @@
       <c r="I225" s="2"/>
       <c r="J225" s="2"/>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="226" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -2927,11 +2638,11 @@
       <c r="I226" s="2"/>
       <c r="J226" s="2"/>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="227" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="2"/>
       <c r="B227" s="1"/>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="228" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -2943,7 +2654,7 @@
       <c r="I228" s="2"/>
       <c r="J228" s="2"/>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="229" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -2955,7 +2666,7 @@
       <c r="I229" s="2"/>
       <c r="J229" s="2"/>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="230" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -2967,7 +2678,7 @@
       <c r="I230" s="2"/>
       <c r="J230" s="2"/>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="231" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -2979,7 +2690,7 @@
       <c r="I231" s="2"/>
       <c r="J231" s="2"/>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="232" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -2991,11 +2702,11 @@
       <c r="I232" s="2"/>
       <c r="J232" s="2"/>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="233" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="2"/>
       <c r="B233" s="1"/>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="234" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -3007,7 +2718,7 @@
       <c r="I234" s="2"/>
       <c r="J234" s="2"/>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="235" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -3019,7 +2730,7 @@
       <c r="I235" s="2"/>
       <c r="J235" s="2"/>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="236" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -3031,7 +2742,7 @@
       <c r="I236" s="2"/>
       <c r="J236" s="2"/>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="237" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -3043,7 +2754,7 @@
       <c r="I237" s="2"/>
       <c r="J237" s="2"/>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="238" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -3055,13 +2766,17 @@
       <c r="I238" s="2"/>
       <c r="J238" s="2"/>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="239" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="2"/>
       <c r="B239" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/Assets/Excel/ExcelData.xlsx
+++ b/Assets/Excel/ExcelData.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2024\GitHub\FreeSummerFes\Assets\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4182C941-F4E3-4092-950B-1E53B6A9804B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Gun" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Gun" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,46 +25,74 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
-    <t xml:space="preserve">id</t>
+    <t>id</t>
   </si>
   <si>
-    <t xml:space="preserve">gunName</t>
+    <t>gunName</t>
   </si>
   <si>
-    <t xml:space="preserve">bulletPower</t>
+    <t>bulletPower</t>
   </si>
   <si>
-    <t xml:space="preserve">displayName</t>
+    <t>displayName</t>
   </si>
   <si>
-    <t xml:space="preserve">a</t>
+    <t>コルク銃</t>
   </si>
   <si>
-    <t xml:space="preserve">コルク銃</t>
+    <t>エアガン</t>
   </si>
   <si>
-    <t xml:space="preserve">エアガン</t>
+    <t>高級エアガン</t>
   </si>
   <si>
-    <t xml:space="preserve">高級エアガン</t>
+    <t>Pistol</t>
   </si>
   <si>
-    <t xml:space="preserve">Pistol</t>
+    <t>拳銃</t>
   </si>
   <si>
-    <t xml:space="preserve">拳銃</t>
+    <t>ToyGun</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おもちゃの銃</t>
+    <rPh sb="5" eb="6">
+      <t>ジュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WaterGun</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水鉄砲</t>
+    <rPh sb="0" eb="3">
+      <t>ミズデッポウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CorkGun</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AirGun</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RichAirGun</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -68,21 +101,9 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -95,7 +116,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -103,88 +124,361 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:J239"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J241"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.63"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1018" min="5" style="0" width="8.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1019" style="0" width="8.61"/>
+    <col min="1" max="1" width="8.625" customWidth="1"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="3" max="3" width="11.5"/>
+    <col min="4" max="4" width="18.125" customWidth="1"/>
+    <col min="5" max="1025" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2"/>
@@ -194,18 +488,18 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="52.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+    <row r="2" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>1000</v>
+      <c r="C2">
+        <v>100</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>5</v>
+      <c r="D2" t="s">
+        <v>10</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -214,38 +508,32 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+    <row r="3" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
+      <c r="B3" t="s">
+        <v>11</v>
       </c>
-      <c r="C3" s="0" t="n">
-        <v>1500</v>
+      <c r="C3">
+        <v>500</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>6</v>
+      <c r="D3" t="s">
+        <v>12</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+    </row>
+    <row r="4" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>1000</v>
+      </c>
+      <c r="D4" t="s">
         <v>4</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>7</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -254,18 +542,18 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+    <row r="5" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>3000</v>
+      <c r="C5">
+        <v>1500</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>9</v>
+      <c r="D5" t="s">
+        <v>5</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -274,11 +562,19 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+    <row r="6" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>2000</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -286,11 +582,19 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+    <row r="7" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>3000</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -298,7 +602,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -310,7 +614,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -322,7 +626,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -334,11 +638,19 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -350,19 +662,11 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -374,7 +678,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -386,7 +690,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -398,11 +702,19 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -414,19 +726,11 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -438,7 +742,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -450,7 +754,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -462,11 +766,19 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2"/>
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -478,19 +790,11 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-    </row>
-    <row r="26" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -502,7 +806,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -514,7 +818,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -526,11 +830,19 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="2"/>
-      <c r="B29" s="1"/>
-    </row>
-    <row r="30" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -542,19 +854,11 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -566,7 +870,7 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -578,7 +882,7 @@
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -590,11 +894,19 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="2"/>
-      <c r="B35" s="1"/>
-    </row>
-    <row r="36" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+    </row>
+    <row r="36" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -606,19 +918,11 @@
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
     </row>
-    <row r="37" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-    </row>
-    <row r="38" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -630,7 +934,7 @@
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -642,7 +946,7 @@
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -654,11 +958,19 @@
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="2"/>
-      <c r="B41" s="1"/>
-    </row>
-    <row r="42" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+    </row>
+    <row r="42" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -670,19 +982,11 @@
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-    </row>
-    <row r="44" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -694,7 +998,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -706,7 +1010,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -718,11 +1022,19 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="2"/>
-      <c r="B47" s="1"/>
-    </row>
-    <row r="48" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+    </row>
+    <row r="48" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -734,19 +1046,11 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-    </row>
-    <row r="50" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B49" s="1"/>
+    </row>
+    <row r="50" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -758,7 +1062,7 @@
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -770,7 +1074,7 @@
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
     </row>
-    <row r="52" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -782,11 +1086,19 @@
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
     </row>
-    <row r="53" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="2"/>
-      <c r="B53" s="1"/>
-    </row>
-    <row r="54" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+    </row>
+    <row r="54" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -798,19 +1110,11 @@
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
     </row>
-    <row r="55" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-    </row>
-    <row r="56" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B55" s="1"/>
+    </row>
+    <row r="56" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -822,7 +1126,7 @@
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
     </row>
-    <row r="57" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -834,7 +1138,7 @@
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
     </row>
-    <row r="58" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -846,11 +1150,19 @@
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
     </row>
-    <row r="59" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="2"/>
-      <c r="B59" s="1"/>
-    </row>
-    <row r="60" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+    </row>
+    <row r="60" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -862,19 +1174,11 @@
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
     </row>
-    <row r="61" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-    </row>
-    <row r="62" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B61" s="1"/>
+    </row>
+    <row r="62" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -886,7 +1190,7 @@
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
     </row>
-    <row r="63" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -898,7 +1202,7 @@
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
     </row>
-    <row r="64" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -910,11 +1214,19 @@
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
     </row>
-    <row r="65" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="2"/>
-      <c r="B65" s="1"/>
-    </row>
-    <row r="66" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+    </row>
+    <row r="66" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -926,19 +1238,11 @@
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
     </row>
-    <row r="67" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
-    </row>
-    <row r="68" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B67" s="1"/>
+    </row>
+    <row r="68" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -950,7 +1254,7 @@
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
     </row>
-    <row r="69" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -962,7 +1266,7 @@
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
     </row>
-    <row r="70" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -974,11 +1278,19 @@
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
     </row>
-    <row r="71" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="2"/>
-      <c r="B71" s="1"/>
-    </row>
-    <row r="72" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+    </row>
+    <row r="72" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -990,19 +1302,11 @@
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
     </row>
-    <row r="73" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
-      <c r="I73" s="2"/>
-      <c r="J73" s="2"/>
-    </row>
-    <row r="74" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B73" s="1"/>
+    </row>
+    <row r="74" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -1014,7 +1318,7 @@
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
     </row>
-    <row r="75" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -1026,7 +1330,7 @@
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
     </row>
-    <row r="76" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -1038,11 +1342,19 @@
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
     </row>
-    <row r="77" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="2"/>
-      <c r="B77" s="1"/>
-    </row>
-    <row r="78" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+    </row>
+    <row r="78" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -1054,19 +1366,11 @@
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
     </row>
-    <row r="79" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="2"/>
-      <c r="J79" s="2"/>
-    </row>
-    <row r="80" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B79" s="1"/>
+    </row>
+    <row r="80" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -1078,7 +1382,7 @@
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
     </row>
-    <row r="81" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -1090,7 +1394,7 @@
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
     </row>
-    <row r="82" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -1102,11 +1406,19 @@
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
     </row>
-    <row r="83" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="2"/>
-      <c r="B83" s="1"/>
-    </row>
-    <row r="84" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+    </row>
+    <row r="84" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -1118,19 +1430,11 @@
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
     </row>
-    <row r="85" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
-      <c r="I85" s="2"/>
-      <c r="J85" s="2"/>
-    </row>
-    <row r="86" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B85" s="1"/>
+    </row>
+    <row r="86" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -1142,7 +1446,7 @@
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
     </row>
-    <row r="87" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -1154,7 +1458,7 @@
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
     </row>
-    <row r="88" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -1166,11 +1470,19 @@
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
     </row>
-    <row r="89" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="2"/>
-      <c r="B89" s="1"/>
-    </row>
-    <row r="90" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
+    </row>
+    <row r="90" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -1182,19 +1494,11 @@
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
     </row>
-    <row r="91" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="2"/>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
-      <c r="I91" s="2"/>
-      <c r="J91" s="2"/>
-    </row>
-    <row r="92" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B91" s="1"/>
+    </row>
+    <row r="92" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -1206,7 +1510,7 @@
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
     </row>
-    <row r="93" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -1218,7 +1522,7 @@
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
     </row>
-    <row r="94" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -1230,11 +1534,19 @@
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
     </row>
-    <row r="95" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="2"/>
-      <c r="B95" s="1"/>
-    </row>
-    <row r="96" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+    </row>
+    <row r="96" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -1246,19 +1558,11 @@
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
     </row>
-    <row r="97" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="2"/>
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
-      <c r="G97" s="2"/>
-      <c r="H97" s="2"/>
-      <c r="I97" s="2"/>
-      <c r="J97" s="2"/>
-    </row>
-    <row r="98" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B97" s="1"/>
+    </row>
+    <row r="98" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -1270,7 +1574,7 @@
       <c r="I98" s="2"/>
       <c r="J98" s="2"/>
     </row>
-    <row r="99" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -1282,7 +1586,7 @@
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
     </row>
-    <row r="100" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -1294,11 +1598,19 @@
       <c r="I100" s="2"/>
       <c r="J100" s="2"/>
     </row>
-    <row r="101" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="2"/>
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2"/>
+      <c r="J101" s="2"/>
+    </row>
+    <row r="102" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -1310,19 +1622,11 @@
       <c r="I102" s="2"/>
       <c r="J102" s="2"/>
     </row>
-    <row r="103" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="2"/>
-      <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
-      <c r="F103" s="2"/>
-      <c r="G103" s="2"/>
-      <c r="H103" s="2"/>
-      <c r="I103" s="2"/>
-      <c r="J103" s="2"/>
-    </row>
-    <row r="104" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B103" s="1"/>
+    </row>
+    <row r="104" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -1334,7 +1638,7 @@
       <c r="I104" s="2"/>
       <c r="J104" s="2"/>
     </row>
-    <row r="105" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -1346,7 +1650,7 @@
       <c r="I105" s="2"/>
       <c r="J105" s="2"/>
     </row>
-    <row r="106" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -1358,11 +1662,19 @@
       <c r="I106" s="2"/>
       <c r="J106" s="2"/>
     </row>
-    <row r="107" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A107" s="2"/>
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
+      <c r="I107" s="2"/>
+      <c r="J107" s="2"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -1374,19 +1686,11 @@
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
     </row>
-    <row r="109" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A109" s="2"/>
-      <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
-      <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
-      <c r="G109" s="2"/>
-      <c r="H109" s="2"/>
-      <c r="I109" s="2"/>
-      <c r="J109" s="2"/>
-    </row>
-    <row r="110" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B109" s="1"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -1398,7 +1702,7 @@
       <c r="I110" s="2"/>
       <c r="J110" s="2"/>
     </row>
-    <row r="111" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -1410,7 +1714,7 @@
       <c r="I111" s="2"/>
       <c r="J111" s="2"/>
     </row>
-    <row r="112" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -1422,11 +1726,19 @@
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
     </row>
-    <row r="113" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A113" s="2"/>
-      <c r="B113" s="1"/>
-    </row>
-    <row r="114" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="2"/>
+      <c r="J113" s="2"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -1438,19 +1750,11 @@
       <c r="I114" s="2"/>
       <c r="J114" s="2"/>
     </row>
-    <row r="115" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A115" s="2"/>
-      <c r="B115" s="2"/>
-      <c r="C115" s="2"/>
-      <c r="D115" s="2"/>
-      <c r="E115" s="2"/>
-      <c r="F115" s="2"/>
-      <c r="G115" s="2"/>
-      <c r="H115" s="2"/>
-      <c r="I115" s="2"/>
-      <c r="J115" s="2"/>
-    </row>
-    <row r="116" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B115" s="1"/>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -1462,7 +1766,7 @@
       <c r="I116" s="2"/>
       <c r="J116" s="2"/>
     </row>
-    <row r="117" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -1474,7 +1778,7 @@
       <c r="I117" s="2"/>
       <c r="J117" s="2"/>
     </row>
-    <row r="118" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -1486,11 +1790,19 @@
       <c r="I118" s="2"/>
       <c r="J118" s="2"/>
     </row>
-    <row r="119" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A119" s="2"/>
-      <c r="B119" s="1"/>
-    </row>
-    <row r="120" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="2"/>
+      <c r="I119" s="2"/>
+      <c r="J119" s="2"/>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -1502,19 +1814,11 @@
       <c r="I120" s="2"/>
       <c r="J120" s="2"/>
     </row>
-    <row r="121" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A121" s="2"/>
-      <c r="B121" s="2"/>
-      <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
-      <c r="E121" s="2"/>
-      <c r="F121" s="2"/>
-      <c r="G121" s="2"/>
-      <c r="H121" s="2"/>
-      <c r="I121" s="2"/>
-      <c r="J121" s="2"/>
-    </row>
-    <row r="122" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B121" s="1"/>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -1526,7 +1830,7 @@
       <c r="I122" s="2"/>
       <c r="J122" s="2"/>
     </row>
-    <row r="123" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -1538,7 +1842,7 @@
       <c r="I123" s="2"/>
       <c r="J123" s="2"/>
     </row>
-    <row r="124" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -1550,11 +1854,19 @@
       <c r="I124" s="2"/>
       <c r="J124" s="2"/>
     </row>
-    <row r="125" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A125" s="2"/>
-      <c r="B125" s="1"/>
-    </row>
-    <row r="126" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B125" s="2"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="2"/>
+      <c r="H125" s="2"/>
+      <c r="I125" s="2"/>
+      <c r="J125" s="2"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -1566,19 +1878,11 @@
       <c r="I126" s="2"/>
       <c r="J126" s="2"/>
     </row>
-    <row r="127" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A127" s="2"/>
-      <c r="B127" s="2"/>
-      <c r="C127" s="2"/>
-      <c r="D127" s="2"/>
-      <c r="E127" s="2"/>
-      <c r="F127" s="2"/>
-      <c r="G127" s="2"/>
-      <c r="H127" s="2"/>
-      <c r="I127" s="2"/>
-      <c r="J127" s="2"/>
-    </row>
-    <row r="128" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B127" s="1"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -1590,7 +1894,7 @@
       <c r="I128" s="2"/>
       <c r="J128" s="2"/>
     </row>
-    <row r="129" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -1602,7 +1906,7 @@
       <c r="I129" s="2"/>
       <c r="J129" s="2"/>
     </row>
-    <row r="130" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -1614,11 +1918,19 @@
       <c r="I130" s="2"/>
       <c r="J130" s="2"/>
     </row>
-    <row r="131" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A131" s="2"/>
-      <c r="B131" s="1"/>
-    </row>
-    <row r="132" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B131" s="2"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="2"/>
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
+      <c r="G131" s="2"/>
+      <c r="H131" s="2"/>
+      <c r="I131" s="2"/>
+      <c r="J131" s="2"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -1630,19 +1942,11 @@
       <c r="I132" s="2"/>
       <c r="J132" s="2"/>
     </row>
-    <row r="133" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A133" s="2"/>
-      <c r="B133" s="2"/>
-      <c r="C133" s="2"/>
-      <c r="D133" s="2"/>
-      <c r="E133" s="2"/>
-      <c r="F133" s="2"/>
-      <c r="G133" s="2"/>
-      <c r="H133" s="2"/>
-      <c r="I133" s="2"/>
-      <c r="J133" s="2"/>
-    </row>
-    <row r="134" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B133" s="1"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -1654,7 +1958,7 @@
       <c r="I134" s="2"/>
       <c r="J134" s="2"/>
     </row>
-    <row r="135" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -1666,7 +1970,7 @@
       <c r="I135" s="2"/>
       <c r="J135" s="2"/>
     </row>
-    <row r="136" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -1678,11 +1982,19 @@
       <c r="I136" s="2"/>
       <c r="J136" s="2"/>
     </row>
-    <row r="137" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A137" s="2"/>
-      <c r="B137" s="1"/>
-    </row>
-    <row r="138" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
+      <c r="G137" s="2"/>
+      <c r="H137" s="2"/>
+      <c r="I137" s="2"/>
+      <c r="J137" s="2"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -1694,19 +2006,11 @@
       <c r="I138" s="2"/>
       <c r="J138" s="2"/>
     </row>
-    <row r="139" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A139" s="2"/>
-      <c r="B139" s="2"/>
-      <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
-      <c r="E139" s="2"/>
-      <c r="F139" s="2"/>
-      <c r="G139" s="2"/>
-      <c r="H139" s="2"/>
-      <c r="I139" s="2"/>
-      <c r="J139" s="2"/>
-    </row>
-    <row r="140" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B139" s="1"/>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -1718,7 +2022,7 @@
       <c r="I140" s="2"/>
       <c r="J140" s="2"/>
     </row>
-    <row r="141" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -1730,7 +2034,7 @@
       <c r="I141" s="2"/>
       <c r="J141" s="2"/>
     </row>
-    <row r="142" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -1742,11 +2046,19 @@
       <c r="I142" s="2"/>
       <c r="J142" s="2"/>
     </row>
-    <row r="143" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A143" s="2"/>
-      <c r="B143" s="1"/>
-    </row>
-    <row r="144" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B143" s="2"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
+      <c r="E143" s="2"/>
+      <c r="F143" s="2"/>
+      <c r="G143" s="2"/>
+      <c r="H143" s="2"/>
+      <c r="I143" s="2"/>
+      <c r="J143" s="2"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -1758,19 +2070,11 @@
       <c r="I144" s="2"/>
       <c r="J144" s="2"/>
     </row>
-    <row r="145" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A145" s="2"/>
-      <c r="B145" s="2"/>
-      <c r="C145" s="2"/>
-      <c r="D145" s="2"/>
-      <c r="E145" s="2"/>
-      <c r="F145" s="2"/>
-      <c r="G145" s="2"/>
-      <c r="H145" s="2"/>
-      <c r="I145" s="2"/>
-      <c r="J145" s="2"/>
-    </row>
-    <row r="146" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B145" s="1"/>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -1782,7 +2086,7 @@
       <c r="I146" s="2"/>
       <c r="J146" s="2"/>
     </row>
-    <row r="147" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -1794,7 +2098,7 @@
       <c r="I147" s="2"/>
       <c r="J147" s="2"/>
     </row>
-    <row r="148" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -1806,11 +2110,19 @@
       <c r="I148" s="2"/>
       <c r="J148" s="2"/>
     </row>
-    <row r="149" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A149" s="2"/>
-      <c r="B149" s="1"/>
-    </row>
-    <row r="150" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B149" s="2"/>
+      <c r="C149" s="2"/>
+      <c r="D149" s="2"/>
+      <c r="E149" s="2"/>
+      <c r="F149" s="2"/>
+      <c r="G149" s="2"/>
+      <c r="H149" s="2"/>
+      <c r="I149" s="2"/>
+      <c r="J149" s="2"/>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -1822,19 +2134,11 @@
       <c r="I150" s="2"/>
       <c r="J150" s="2"/>
     </row>
-    <row r="151" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A151" s="2"/>
-      <c r="B151" s="2"/>
-      <c r="C151" s="2"/>
-      <c r="D151" s="2"/>
-      <c r="E151" s="2"/>
-      <c r="F151" s="2"/>
-      <c r="G151" s="2"/>
-      <c r="H151" s="2"/>
-      <c r="I151" s="2"/>
-      <c r="J151" s="2"/>
-    </row>
-    <row r="152" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B151" s="1"/>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -1846,7 +2150,7 @@
       <c r="I152" s="2"/>
       <c r="J152" s="2"/>
     </row>
-    <row r="153" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -1858,7 +2162,7 @@
       <c r="I153" s="2"/>
       <c r="J153" s="2"/>
     </row>
-    <row r="154" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -1870,11 +2174,19 @@
       <c r="I154" s="2"/>
       <c r="J154" s="2"/>
     </row>
-    <row r="155" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A155" s="2"/>
-      <c r="B155" s="1"/>
-    </row>
-    <row r="156" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B155" s="2"/>
+      <c r="C155" s="2"/>
+      <c r="D155" s="2"/>
+      <c r="E155" s="2"/>
+      <c r="F155" s="2"/>
+      <c r="G155" s="2"/>
+      <c r="H155" s="2"/>
+      <c r="I155" s="2"/>
+      <c r="J155" s="2"/>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -1886,19 +2198,11 @@
       <c r="I156" s="2"/>
       <c r="J156" s="2"/>
     </row>
-    <row r="157" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A157" s="2"/>
-      <c r="B157" s="2"/>
-      <c r="C157" s="2"/>
-      <c r="D157" s="2"/>
-      <c r="E157" s="2"/>
-      <c r="F157" s="2"/>
-      <c r="G157" s="2"/>
-      <c r="H157" s="2"/>
-      <c r="I157" s="2"/>
-      <c r="J157" s="2"/>
-    </row>
-    <row r="158" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B157" s="1"/>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -1910,7 +2214,7 @@
       <c r="I158" s="2"/>
       <c r="J158" s="2"/>
     </row>
-    <row r="159" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -1922,7 +2226,7 @@
       <c r="I159" s="2"/>
       <c r="J159" s="2"/>
     </row>
-    <row r="160" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -1934,11 +2238,19 @@
       <c r="I160" s="2"/>
       <c r="J160" s="2"/>
     </row>
-    <row r="161" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A161" s="2"/>
-      <c r="B161" s="1"/>
-    </row>
-    <row r="162" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B161" s="2"/>
+      <c r="C161" s="2"/>
+      <c r="D161" s="2"/>
+      <c r="E161" s="2"/>
+      <c r="F161" s="2"/>
+      <c r="G161" s="2"/>
+      <c r="H161" s="2"/>
+      <c r="I161" s="2"/>
+      <c r="J161" s="2"/>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -1950,19 +2262,11 @@
       <c r="I162" s="2"/>
       <c r="J162" s="2"/>
     </row>
-    <row r="163" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A163" s="2"/>
-      <c r="B163" s="2"/>
-      <c r="C163" s="2"/>
-      <c r="D163" s="2"/>
-      <c r="E163" s="2"/>
-      <c r="F163" s="2"/>
-      <c r="G163" s="2"/>
-      <c r="H163" s="2"/>
-      <c r="I163" s="2"/>
-      <c r="J163" s="2"/>
-    </row>
-    <row r="164" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B163" s="1"/>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -1974,7 +2278,7 @@
       <c r="I164" s="2"/>
       <c r="J164" s="2"/>
     </row>
-    <row r="165" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -1986,7 +2290,7 @@
       <c r="I165" s="2"/>
       <c r="J165" s="2"/>
     </row>
-    <row r="166" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -1998,11 +2302,19 @@
       <c r="I166" s="2"/>
       <c r="J166" s="2"/>
     </row>
-    <row r="167" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A167" s="2"/>
-      <c r="B167" s="1"/>
-    </row>
-    <row r="168" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B167" s="2"/>
+      <c r="C167" s="2"/>
+      <c r="D167" s="2"/>
+      <c r="E167" s="2"/>
+      <c r="F167" s="2"/>
+      <c r="G167" s="2"/>
+      <c r="H167" s="2"/>
+      <c r="I167" s="2"/>
+      <c r="J167" s="2"/>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -2014,19 +2326,11 @@
       <c r="I168" s="2"/>
       <c r="J168" s="2"/>
     </row>
-    <row r="169" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A169" s="2"/>
-      <c r="B169" s="2"/>
-      <c r="C169" s="2"/>
-      <c r="D169" s="2"/>
-      <c r="E169" s="2"/>
-      <c r="F169" s="2"/>
-      <c r="G169" s="2"/>
-      <c r="H169" s="2"/>
-      <c r="I169" s="2"/>
-      <c r="J169" s="2"/>
-    </row>
-    <row r="170" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B169" s="1"/>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -2038,7 +2342,7 @@
       <c r="I170" s="2"/>
       <c r="J170" s="2"/>
     </row>
-    <row r="171" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -2050,7 +2354,7 @@
       <c r="I171" s="2"/>
       <c r="J171" s="2"/>
     </row>
-    <row r="172" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -2062,11 +2366,19 @@
       <c r="I172" s="2"/>
       <c r="J172" s="2"/>
     </row>
-    <row r="173" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A173" s="2"/>
-      <c r="B173" s="1"/>
-    </row>
-    <row r="174" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B173" s="2"/>
+      <c r="C173" s="2"/>
+      <c r="D173" s="2"/>
+      <c r="E173" s="2"/>
+      <c r="F173" s="2"/>
+      <c r="G173" s="2"/>
+      <c r="H173" s="2"/>
+      <c r="I173" s="2"/>
+      <c r="J173" s="2"/>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -2078,19 +2390,11 @@
       <c r="I174" s="2"/>
       <c r="J174" s="2"/>
     </row>
-    <row r="175" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A175" s="2"/>
-      <c r="B175" s="2"/>
-      <c r="C175" s="2"/>
-      <c r="D175" s="2"/>
-      <c r="E175" s="2"/>
-      <c r="F175" s="2"/>
-      <c r="G175" s="2"/>
-      <c r="H175" s="2"/>
-      <c r="I175" s="2"/>
-      <c r="J175" s="2"/>
-    </row>
-    <row r="176" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B175" s="1"/>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -2102,7 +2406,7 @@
       <c r="I176" s="2"/>
       <c r="J176" s="2"/>
     </row>
-    <row r="177" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -2114,7 +2418,7 @@
       <c r="I177" s="2"/>
       <c r="J177" s="2"/>
     </row>
-    <row r="178" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -2126,11 +2430,19 @@
       <c r="I178" s="2"/>
       <c r="J178" s="2"/>
     </row>
-    <row r="179" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A179" s="2"/>
-      <c r="B179" s="1"/>
-    </row>
-    <row r="180" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B179" s="2"/>
+      <c r="C179" s="2"/>
+      <c r="D179" s="2"/>
+      <c r="E179" s="2"/>
+      <c r="F179" s="2"/>
+      <c r="G179" s="2"/>
+      <c r="H179" s="2"/>
+      <c r="I179" s="2"/>
+      <c r="J179" s="2"/>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -2142,19 +2454,11 @@
       <c r="I180" s="2"/>
       <c r="J180" s="2"/>
     </row>
-    <row r="181" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A181" s="2"/>
-      <c r="B181" s="2"/>
-      <c r="C181" s="2"/>
-      <c r="D181" s="2"/>
-      <c r="E181" s="2"/>
-      <c r="F181" s="2"/>
-      <c r="G181" s="2"/>
-      <c r="H181" s="2"/>
-      <c r="I181" s="2"/>
-      <c r="J181" s="2"/>
-    </row>
-    <row r="182" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B181" s="1"/>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -2166,7 +2470,7 @@
       <c r="I182" s="2"/>
       <c r="J182" s="2"/>
     </row>
-    <row r="183" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -2178,7 +2482,7 @@
       <c r="I183" s="2"/>
       <c r="J183" s="2"/>
     </row>
-    <row r="184" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -2190,11 +2494,19 @@
       <c r="I184" s="2"/>
       <c r="J184" s="2"/>
     </row>
-    <row r="185" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A185" s="2"/>
-      <c r="B185" s="1"/>
-    </row>
-    <row r="186" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B185" s="2"/>
+      <c r="C185" s="2"/>
+      <c r="D185" s="2"/>
+      <c r="E185" s="2"/>
+      <c r="F185" s="2"/>
+      <c r="G185" s="2"/>
+      <c r="H185" s="2"/>
+      <c r="I185" s="2"/>
+      <c r="J185" s="2"/>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -2206,19 +2518,11 @@
       <c r="I186" s="2"/>
       <c r="J186" s="2"/>
     </row>
-    <row r="187" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A187" s="2"/>
-      <c r="B187" s="2"/>
-      <c r="C187" s="2"/>
-      <c r="D187" s="2"/>
-      <c r="E187" s="2"/>
-      <c r="F187" s="2"/>
-      <c r="G187" s="2"/>
-      <c r="H187" s="2"/>
-      <c r="I187" s="2"/>
-      <c r="J187" s="2"/>
-    </row>
-    <row r="188" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B187" s="1"/>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -2230,7 +2534,7 @@
       <c r="I188" s="2"/>
       <c r="J188" s="2"/>
     </row>
-    <row r="189" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -2242,7 +2546,7 @@
       <c r="I189" s="2"/>
       <c r="J189" s="2"/>
     </row>
-    <row r="190" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -2254,11 +2558,19 @@
       <c r="I190" s="2"/>
       <c r="J190" s="2"/>
     </row>
-    <row r="191" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A191" s="2"/>
-      <c r="B191" s="1"/>
-    </row>
-    <row r="192" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B191" s="2"/>
+      <c r="C191" s="2"/>
+      <c r="D191" s="2"/>
+      <c r="E191" s="2"/>
+      <c r="F191" s="2"/>
+      <c r="G191" s="2"/>
+      <c r="H191" s="2"/>
+      <c r="I191" s="2"/>
+      <c r="J191" s="2"/>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -2270,19 +2582,11 @@
       <c r="I192" s="2"/>
       <c r="J192" s="2"/>
     </row>
-    <row r="193" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A193" s="2"/>
-      <c r="B193" s="2"/>
-      <c r="C193" s="2"/>
-      <c r="D193" s="2"/>
-      <c r="E193" s="2"/>
-      <c r="F193" s="2"/>
-      <c r="G193" s="2"/>
-      <c r="H193" s="2"/>
-      <c r="I193" s="2"/>
-      <c r="J193" s="2"/>
-    </row>
-    <row r="194" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B193" s="1"/>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -2294,7 +2598,7 @@
       <c r="I194" s="2"/>
       <c r="J194" s="2"/>
     </row>
-    <row r="195" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -2306,7 +2610,7 @@
       <c r="I195" s="2"/>
       <c r="J195" s="2"/>
     </row>
-    <row r="196" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -2318,11 +2622,19 @@
       <c r="I196" s="2"/>
       <c r="J196" s="2"/>
     </row>
-    <row r="197" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A197" s="2"/>
-      <c r="B197" s="1"/>
-    </row>
-    <row r="198" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B197" s="2"/>
+      <c r="C197" s="2"/>
+      <c r="D197" s="2"/>
+      <c r="E197" s="2"/>
+      <c r="F197" s="2"/>
+      <c r="G197" s="2"/>
+      <c r="H197" s="2"/>
+      <c r="I197" s="2"/>
+      <c r="J197" s="2"/>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -2334,19 +2646,11 @@
       <c r="I198" s="2"/>
       <c r="J198" s="2"/>
     </row>
-    <row r="199" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A199" s="2"/>
-      <c r="B199" s="2"/>
-      <c r="C199" s="2"/>
-      <c r="D199" s="2"/>
-      <c r="E199" s="2"/>
-      <c r="F199" s="2"/>
-      <c r="G199" s="2"/>
-      <c r="H199" s="2"/>
-      <c r="I199" s="2"/>
-      <c r="J199" s="2"/>
-    </row>
-    <row r="200" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B199" s="1"/>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -2358,7 +2662,7 @@
       <c r="I200" s="2"/>
       <c r="J200" s="2"/>
     </row>
-    <row r="201" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -2370,7 +2674,7 @@
       <c r="I201" s="2"/>
       <c r="J201" s="2"/>
     </row>
-    <row r="202" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -2382,11 +2686,19 @@
       <c r="I202" s="2"/>
       <c r="J202" s="2"/>
     </row>
-    <row r="203" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A203" s="2"/>
-      <c r="B203" s="1"/>
-    </row>
-    <row r="204" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B203" s="2"/>
+      <c r="C203" s="2"/>
+      <c r="D203" s="2"/>
+      <c r="E203" s="2"/>
+      <c r="F203" s="2"/>
+      <c r="G203" s="2"/>
+      <c r="H203" s="2"/>
+      <c r="I203" s="2"/>
+      <c r="J203" s="2"/>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -2398,19 +2710,11 @@
       <c r="I204" s="2"/>
       <c r="J204" s="2"/>
     </row>
-    <row r="205" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A205" s="2"/>
-      <c r="B205" s="2"/>
-      <c r="C205" s="2"/>
-      <c r="D205" s="2"/>
-      <c r="E205" s="2"/>
-      <c r="F205" s="2"/>
-      <c r="G205" s="2"/>
-      <c r="H205" s="2"/>
-      <c r="I205" s="2"/>
-      <c r="J205" s="2"/>
-    </row>
-    <row r="206" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B205" s="1"/>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -2422,7 +2726,7 @@
       <c r="I206" s="2"/>
       <c r="J206" s="2"/>
     </row>
-    <row r="207" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -2434,7 +2738,7 @@
       <c r="I207" s="2"/>
       <c r="J207" s="2"/>
     </row>
-    <row r="208" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -2446,11 +2750,19 @@
       <c r="I208" s="2"/>
       <c r="J208" s="2"/>
     </row>
-    <row r="209" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A209" s="2"/>
-      <c r="B209" s="1"/>
-    </row>
-    <row r="210" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B209" s="2"/>
+      <c r="C209" s="2"/>
+      <c r="D209" s="2"/>
+      <c r="E209" s="2"/>
+      <c r="F209" s="2"/>
+      <c r="G209" s="2"/>
+      <c r="H209" s="2"/>
+      <c r="I209" s="2"/>
+      <c r="J209" s="2"/>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -2462,19 +2774,11 @@
       <c r="I210" s="2"/>
       <c r="J210" s="2"/>
     </row>
-    <row r="211" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A211" s="2"/>
-      <c r="B211" s="2"/>
-      <c r="C211" s="2"/>
-      <c r="D211" s="2"/>
-      <c r="E211" s="2"/>
-      <c r="F211" s="2"/>
-      <c r="G211" s="2"/>
-      <c r="H211" s="2"/>
-      <c r="I211" s="2"/>
-      <c r="J211" s="2"/>
-    </row>
-    <row r="212" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B211" s="1"/>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -2486,7 +2790,7 @@
       <c r="I212" s="2"/>
       <c r="J212" s="2"/>
     </row>
-    <row r="213" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -2498,7 +2802,7 @@
       <c r="I213" s="2"/>
       <c r="J213" s="2"/>
     </row>
-    <row r="214" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -2510,11 +2814,19 @@
       <c r="I214" s="2"/>
       <c r="J214" s="2"/>
     </row>
-    <row r="215" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A215" s="2"/>
-      <c r="B215" s="1"/>
-    </row>
-    <row r="216" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B215" s="2"/>
+      <c r="C215" s="2"/>
+      <c r="D215" s="2"/>
+      <c r="E215" s="2"/>
+      <c r="F215" s="2"/>
+      <c r="G215" s="2"/>
+      <c r="H215" s="2"/>
+      <c r="I215" s="2"/>
+      <c r="J215" s="2"/>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -2526,19 +2838,11 @@
       <c r="I216" s="2"/>
       <c r="J216" s="2"/>
     </row>
-    <row r="217" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A217" s="2"/>
-      <c r="B217" s="2"/>
-      <c r="C217" s="2"/>
-      <c r="D217" s="2"/>
-      <c r="E217" s="2"/>
-      <c r="F217" s="2"/>
-      <c r="G217" s="2"/>
-      <c r="H217" s="2"/>
-      <c r="I217" s="2"/>
-      <c r="J217" s="2"/>
-    </row>
-    <row r="218" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B217" s="1"/>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -2550,7 +2854,7 @@
       <c r="I218" s="2"/>
       <c r="J218" s="2"/>
     </row>
-    <row r="219" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -2562,7 +2866,7 @@
       <c r="I219" s="2"/>
       <c r="J219" s="2"/>
     </row>
-    <row r="220" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -2574,11 +2878,19 @@
       <c r="I220" s="2"/>
       <c r="J220" s="2"/>
     </row>
-    <row r="221" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A221" s="2"/>
-      <c r="B221" s="1"/>
-    </row>
-    <row r="222" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B221" s="2"/>
+      <c r="C221" s="2"/>
+      <c r="D221" s="2"/>
+      <c r="E221" s="2"/>
+      <c r="F221" s="2"/>
+      <c r="G221" s="2"/>
+      <c r="H221" s="2"/>
+      <c r="I221" s="2"/>
+      <c r="J221" s="2"/>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -2590,19 +2902,11 @@
       <c r="I222" s="2"/>
       <c r="J222" s="2"/>
     </row>
-    <row r="223" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A223" s="2"/>
-      <c r="B223" s="2"/>
-      <c r="C223" s="2"/>
-      <c r="D223" s="2"/>
-      <c r="E223" s="2"/>
-      <c r="F223" s="2"/>
-      <c r="G223" s="2"/>
-      <c r="H223" s="2"/>
-      <c r="I223" s="2"/>
-      <c r="J223" s="2"/>
-    </row>
-    <row r="224" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B223" s="1"/>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -2614,7 +2918,7 @@
       <c r="I224" s="2"/>
       <c r="J224" s="2"/>
     </row>
-    <row r="225" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -2626,7 +2930,7 @@
       <c r="I225" s="2"/>
       <c r="J225" s="2"/>
     </row>
-    <row r="226" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -2638,11 +2942,19 @@
       <c r="I226" s="2"/>
       <c r="J226" s="2"/>
     </row>
-    <row r="227" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A227" s="2"/>
-      <c r="B227" s="1"/>
-    </row>
-    <row r="228" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B227" s="2"/>
+      <c r="C227" s="2"/>
+      <c r="D227" s="2"/>
+      <c r="E227" s="2"/>
+      <c r="F227" s="2"/>
+      <c r="G227" s="2"/>
+      <c r="H227" s="2"/>
+      <c r="I227" s="2"/>
+      <c r="J227" s="2"/>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -2654,19 +2966,11 @@
       <c r="I228" s="2"/>
       <c r="J228" s="2"/>
     </row>
-    <row r="229" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A229" s="2"/>
-      <c r="B229" s="2"/>
-      <c r="C229" s="2"/>
-      <c r="D229" s="2"/>
-      <c r="E229" s="2"/>
-      <c r="F229" s="2"/>
-      <c r="G229" s="2"/>
-      <c r="H229" s="2"/>
-      <c r="I229" s="2"/>
-      <c r="J229" s="2"/>
-    </row>
-    <row r="230" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B229" s="1"/>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -2678,7 +2982,7 @@
       <c r="I230" s="2"/>
       <c r="J230" s="2"/>
     </row>
-    <row r="231" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -2690,7 +2994,7 @@
       <c r="I231" s="2"/>
       <c r="J231" s="2"/>
     </row>
-    <row r="232" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -2702,11 +3006,19 @@
       <c r="I232" s="2"/>
       <c r="J232" s="2"/>
     </row>
-    <row r="233" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A233" s="2"/>
-      <c r="B233" s="1"/>
-    </row>
-    <row r="234" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B233" s="2"/>
+      <c r="C233" s="2"/>
+      <c r="D233" s="2"/>
+      <c r="E233" s="2"/>
+      <c r="F233" s="2"/>
+      <c r="G233" s="2"/>
+      <c r="H233" s="2"/>
+      <c r="I233" s="2"/>
+      <c r="J233" s="2"/>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -2718,19 +3030,11 @@
       <c r="I234" s="2"/>
       <c r="J234" s="2"/>
     </row>
-    <row r="235" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A235" s="2"/>
-      <c r="B235" s="2"/>
-      <c r="C235" s="2"/>
-      <c r="D235" s="2"/>
-      <c r="E235" s="2"/>
-      <c r="F235" s="2"/>
-      <c r="G235" s="2"/>
-      <c r="H235" s="2"/>
-      <c r="I235" s="2"/>
-      <c r="J235" s="2"/>
-    </row>
-    <row r="236" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B235" s="1"/>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -2742,7 +3046,7 @@
       <c r="I236" s="2"/>
       <c r="J236" s="2"/>
     </row>
-    <row r="237" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -2754,7 +3058,7 @@
       <c r="I237" s="2"/>
       <c r="J237" s="2"/>
     </row>
-    <row r="238" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -2766,17 +3070,37 @@
       <c r="I238" s="2"/>
       <c r="J238" s="2"/>
     </row>
-    <row r="239" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A239" s="2"/>
-      <c r="B239" s="1"/>
+      <c r="B239" s="2"/>
+      <c r="C239" s="2"/>
+      <c r="D239" s="2"/>
+      <c r="E239" s="2"/>
+      <c r="F239" s="2"/>
+      <c r="G239" s="2"/>
+      <c r="H239" s="2"/>
+      <c r="I239" s="2"/>
+      <c r="J239" s="2"/>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A240" s="2"/>
+      <c r="B240" s="2"/>
+      <c r="C240" s="2"/>
+      <c r="D240" s="2"/>
+      <c r="E240" s="2"/>
+      <c r="F240" s="2"/>
+      <c r="G240" s="2"/>
+      <c r="H240" s="2"/>
+      <c r="I240" s="2"/>
+      <c r="J240" s="2"/>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A241" s="2"/>
+      <c r="B241" s="1"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/Excel/ExcelData.xlsx
+++ b/Assets/Excel/ExcelData.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2024\GitHub\FreeSummerFes\Assets\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4182C941-F4E3-4092-950B-1E53B6A9804B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Gun" sheetId="1" r:id="rId1"/>
+    <sheet name="Gun" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,74 +20,67 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
-    <t>id</t>
+    <t xml:space="preserve">id</t>
   </si>
   <si>
-    <t>gunName</t>
+    <t xml:space="preserve">gunName</t>
   </si>
   <si>
-    <t>bulletPower</t>
+    <t xml:space="preserve">bulletPower</t>
   </si>
   <si>
-    <t>displayName</t>
+    <t xml:space="preserve">displayName</t>
   </si>
   <si>
-    <t>コルク銃</t>
+    <t xml:space="preserve">bulletAmount</t>
   </si>
   <si>
-    <t>エアガン</t>
+    <t xml:space="preserve">ToyGun</t>
   </si>
   <si>
-    <t>高級エアガン</t>
+    <t xml:space="preserve">おもちゃの銃</t>
   </si>
   <si>
-    <t>Pistol</t>
+    <t xml:space="preserve">WaterGun</t>
   </si>
   <si>
-    <t>拳銃</t>
+    <t xml:space="preserve">水鉄砲</t>
   </si>
   <si>
-    <t>ToyGun</t>
-    <phoneticPr fontId="1"/>
+    <t xml:space="preserve">CorkGun</t>
   </si>
   <si>
-    <t>おもちゃの銃</t>
-    <rPh sb="5" eb="6">
-      <t>ジュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+    <t xml:space="preserve">コルク銃</t>
   </si>
   <si>
-    <t>WaterGun</t>
-    <phoneticPr fontId="1"/>
+    <t xml:space="preserve">AirGun</t>
   </si>
   <si>
-    <t>水鉄砲</t>
-    <rPh sb="0" eb="3">
-      <t>ミズデッポウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+    <t xml:space="preserve">エアガン</t>
   </si>
   <si>
-    <t>CorkGun</t>
-    <phoneticPr fontId="1"/>
+    <t xml:space="preserve">RichAirGun</t>
   </si>
   <si>
-    <t>AirGun</t>
-    <phoneticPr fontId="1"/>
+    <t xml:space="preserve">高級エアガン</t>
   </si>
   <si>
-    <t>RichAirGun</t>
-    <phoneticPr fontId="1"/>
+    <t xml:space="preserve">Pistol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">拳銃</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -101,9 +89,21 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="6"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -116,7 +116,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -124,485 +124,227 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:J241"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.625" customWidth="1"/>
-    <col min="2" max="2" width="12.625" customWidth="1"/>
-    <col min="3" max="3" width="11.5"/>
-    <col min="4" max="4" width="18.125" customWidth="1"/>
-    <col min="5" max="1025" width="8.625" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.63"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="1">
+    <row r="2" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2">
-        <v>100</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>3</v>
+      </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3">
+    <row r="3" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>500</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="1">
+      <c r="B3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4">
-        <v>1000</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5">
+    <row r="5" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5">
+        <v>11</v>
+      </c>
+      <c r="C5" s="0" t="n">
         <v>1500</v>
       </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="2"/>
+      <c r="D5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>20</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="1">
+    <row r="6" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6">
+        <v>13</v>
+      </c>
+      <c r="C6" s="0" t="n">
         <v>2000</v>
       </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="2"/>
+      <c r="D6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>10</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7">
+    <row r="7" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
+        <v>15</v>
+      </c>
+      <c r="C7" s="0" t="n">
         <v>3000</v>
       </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="2"/>
+      <c r="D7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>6</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -614,7 +356,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -626,7 +368,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -638,7 +380,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -650,7 +392,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -662,11 +404,11 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2"/>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -678,7 +420,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -690,7 +432,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -702,7 +444,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -714,7 +456,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -726,11 +468,11 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="2"/>
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -742,7 +484,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -754,7 +496,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -766,7 +508,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -778,7 +520,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -790,11 +532,11 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="2"/>
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -806,7 +548,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -818,7 +560,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -830,7 +572,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -842,7 +584,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -854,11 +596,11 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="2"/>
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -870,7 +612,7 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -882,7 +624,7 @@
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -894,7 +636,7 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -906,7 +648,7 @@
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -918,11 +660,11 @@
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
     </row>
-    <row r="37" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="2"/>
       <c r="B37" s="1"/>
     </row>
-    <row r="38" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -934,7 +676,7 @@
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -946,7 +688,7 @@
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -958,7 +700,7 @@
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -970,7 +712,7 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -982,11 +724,11 @@
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="2"/>
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -998,7 +740,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1010,7 +752,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1022,7 +764,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1034,7 +776,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1046,11 +788,11 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="2"/>
       <c r="B49" s="1"/>
     </row>
-    <row r="50" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -1062,7 +804,7 @@
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1074,7 +816,7 @@
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
     </row>
-    <row r="52" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1086,7 +828,7 @@
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
     </row>
-    <row r="53" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1098,7 +840,7 @@
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
     </row>
-    <row r="54" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1110,11 +852,11 @@
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
     </row>
-    <row r="55" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="2"/>
       <c r="B55" s="1"/>
     </row>
-    <row r="56" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -1126,7 +868,7 @@
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
     </row>
-    <row r="57" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1138,7 +880,7 @@
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
     </row>
-    <row r="58" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -1150,7 +892,7 @@
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
     </row>
-    <row r="59" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1162,7 +904,7 @@
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
     </row>
-    <row r="60" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -1174,11 +916,11 @@
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
     </row>
-    <row r="61" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="2"/>
       <c r="B61" s="1"/>
     </row>
-    <row r="62" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1190,7 +932,7 @@
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
     </row>
-    <row r="63" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -1202,7 +944,7 @@
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
     </row>
-    <row r="64" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -1214,7 +956,7 @@
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
     </row>
-    <row r="65" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -1226,7 +968,7 @@
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
     </row>
-    <row r="66" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -1238,11 +980,11 @@
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
     </row>
-    <row r="67" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="2"/>
       <c r="B67" s="1"/>
     </row>
-    <row r="68" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -1254,7 +996,7 @@
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
     </row>
-    <row r="69" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -1266,7 +1008,7 @@
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
     </row>
-    <row r="70" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -1278,7 +1020,7 @@
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
     </row>
-    <row r="71" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -1290,7 +1032,7 @@
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
     </row>
-    <row r="72" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -1302,11 +1044,11 @@
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
     </row>
-    <row r="73" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="2"/>
       <c r="B73" s="1"/>
     </row>
-    <row r="74" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -1318,7 +1060,7 @@
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
     </row>
-    <row r="75" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -1330,7 +1072,7 @@
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
     </row>
-    <row r="76" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -1342,7 +1084,7 @@
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
     </row>
-    <row r="77" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -1354,7 +1096,7 @@
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
     </row>
-    <row r="78" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -1366,11 +1108,11 @@
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
     </row>
-    <row r="79" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="2"/>
       <c r="B79" s="1"/>
     </row>
-    <row r="80" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -1382,7 +1124,7 @@
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
     </row>
-    <row r="81" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -1394,7 +1136,7 @@
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
     </row>
-    <row r="82" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -1406,7 +1148,7 @@
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
     </row>
-    <row r="83" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -1418,7 +1160,7 @@
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
     </row>
-    <row r="84" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -1430,11 +1172,11 @@
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
     </row>
-    <row r="85" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="2"/>
       <c r="B85" s="1"/>
     </row>
-    <row r="86" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -1446,7 +1188,7 @@
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
     </row>
-    <row r="87" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -1458,7 +1200,7 @@
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
     </row>
-    <row r="88" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -1470,7 +1212,7 @@
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
     </row>
-    <row r="89" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -1482,7 +1224,7 @@
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
     </row>
-    <row r="90" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -1494,11 +1236,11 @@
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
     </row>
-    <row r="91" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="2"/>
       <c r="B91" s="1"/>
     </row>
-    <row r="92" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -1510,7 +1252,7 @@
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
     </row>
-    <row r="93" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -1522,7 +1264,7 @@
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
     </row>
-    <row r="94" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -1534,7 +1276,7 @@
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
     </row>
-    <row r="95" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -1546,7 +1288,7 @@
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
     </row>
-    <row r="96" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -1558,11 +1300,11 @@
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
     </row>
-    <row r="97" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="2"/>
       <c r="B97" s="1"/>
     </row>
-    <row r="98" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -1574,7 +1316,7 @@
       <c r="I98" s="2"/>
       <c r="J98" s="2"/>
     </row>
-    <row r="99" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -1586,7 +1328,7 @@
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
     </row>
-    <row r="100" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -1598,7 +1340,7 @@
       <c r="I100" s="2"/>
       <c r="J100" s="2"/>
     </row>
-    <row r="101" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -1610,7 +1352,7 @@
       <c r="I101" s="2"/>
       <c r="J101" s="2"/>
     </row>
-    <row r="102" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -1622,11 +1364,11 @@
       <c r="I102" s="2"/>
       <c r="J102" s="2"/>
     </row>
-    <row r="103" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="2"/>
       <c r="B103" s="1"/>
     </row>
-    <row r="104" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -1638,7 +1380,7 @@
       <c r="I104" s="2"/>
       <c r="J104" s="2"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="105" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -1650,7 +1392,7 @@
       <c r="I105" s="2"/>
       <c r="J105" s="2"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="106" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -1662,7 +1404,7 @@
       <c r="I106" s="2"/>
       <c r="J106" s="2"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="107" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -1674,7 +1416,7 @@
       <c r="I107" s="2"/>
       <c r="J107" s="2"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="108" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -1686,11 +1428,11 @@
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="109" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2"/>
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="110" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -1702,7 +1444,7 @@
       <c r="I110" s="2"/>
       <c r="J110" s="2"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="111" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -1714,7 +1456,7 @@
       <c r="I111" s="2"/>
       <c r="J111" s="2"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="112" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -1726,7 +1468,7 @@
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="113" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -1738,7 +1480,7 @@
       <c r="I113" s="2"/>
       <c r="J113" s="2"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="114" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -1750,11 +1492,11 @@
       <c r="I114" s="2"/>
       <c r="J114" s="2"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="115" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2"/>
       <c r="B115" s="1"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="116" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -1766,7 +1508,7 @@
       <c r="I116" s="2"/>
       <c r="J116" s="2"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="117" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -1778,7 +1520,7 @@
       <c r="I117" s="2"/>
       <c r="J117" s="2"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="118" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -1790,7 +1532,7 @@
       <c r="I118" s="2"/>
       <c r="J118" s="2"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="119" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -1802,7 +1544,7 @@
       <c r="I119" s="2"/>
       <c r="J119" s="2"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="120" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -1814,11 +1556,11 @@
       <c r="I120" s="2"/>
       <c r="J120" s="2"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="121" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2"/>
       <c r="B121" s="1"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="122" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -1830,7 +1572,7 @@
       <c r="I122" s="2"/>
       <c r="J122" s="2"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="123" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -1842,7 +1584,7 @@
       <c r="I123" s="2"/>
       <c r="J123" s="2"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="124" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -1854,7 +1596,7 @@
       <c r="I124" s="2"/>
       <c r="J124" s="2"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="125" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -1866,7 +1608,7 @@
       <c r="I125" s="2"/>
       <c r="J125" s="2"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="126" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -1878,11 +1620,11 @@
       <c r="I126" s="2"/>
       <c r="J126" s="2"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="127" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="2"/>
       <c r="B127" s="1"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="128" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -1894,7 +1636,7 @@
       <c r="I128" s="2"/>
       <c r="J128" s="2"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="129" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -1906,7 +1648,7 @@
       <c r="I129" s="2"/>
       <c r="J129" s="2"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="130" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -1918,7 +1660,7 @@
       <c r="I130" s="2"/>
       <c r="J130" s="2"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="131" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -1930,7 +1672,7 @@
       <c r="I131" s="2"/>
       <c r="J131" s="2"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="132" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -1942,11 +1684,11 @@
       <c r="I132" s="2"/>
       <c r="J132" s="2"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="133" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="2"/>
       <c r="B133" s="1"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="134" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -1958,7 +1700,7 @@
       <c r="I134" s="2"/>
       <c r="J134" s="2"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="135" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -1970,7 +1712,7 @@
       <c r="I135" s="2"/>
       <c r="J135" s="2"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="136" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -1982,7 +1724,7 @@
       <c r="I136" s="2"/>
       <c r="J136" s="2"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="137" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -1994,7 +1736,7 @@
       <c r="I137" s="2"/>
       <c r="J137" s="2"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="138" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -2006,11 +1748,11 @@
       <c r="I138" s="2"/>
       <c r="J138" s="2"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="139" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="2"/>
       <c r="B139" s="1"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="140" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -2022,7 +1764,7 @@
       <c r="I140" s="2"/>
       <c r="J140" s="2"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="141" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -2034,7 +1776,7 @@
       <c r="I141" s="2"/>
       <c r="J141" s="2"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="142" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -2046,7 +1788,7 @@
       <c r="I142" s="2"/>
       <c r="J142" s="2"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="143" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -2058,7 +1800,7 @@
       <c r="I143" s="2"/>
       <c r="J143" s="2"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="144" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -2070,11 +1812,11 @@
       <c r="I144" s="2"/>
       <c r="J144" s="2"/>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="145" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="2"/>
       <c r="B145" s="1"/>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="146" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -2086,7 +1828,7 @@
       <c r="I146" s="2"/>
       <c r="J146" s="2"/>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="147" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -2098,7 +1840,7 @@
       <c r="I147" s="2"/>
       <c r="J147" s="2"/>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="148" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -2110,7 +1852,7 @@
       <c r="I148" s="2"/>
       <c r="J148" s="2"/>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="149" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -2122,7 +1864,7 @@
       <c r="I149" s="2"/>
       <c r="J149" s="2"/>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="150" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -2134,11 +1876,11 @@
       <c r="I150" s="2"/>
       <c r="J150" s="2"/>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="151" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="2"/>
       <c r="B151" s="1"/>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="152" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -2150,7 +1892,7 @@
       <c r="I152" s="2"/>
       <c r="J152" s="2"/>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="153" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -2162,7 +1904,7 @@
       <c r="I153" s="2"/>
       <c r="J153" s="2"/>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="154" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -2174,7 +1916,7 @@
       <c r="I154" s="2"/>
       <c r="J154" s="2"/>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="155" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -2186,7 +1928,7 @@
       <c r="I155" s="2"/>
       <c r="J155" s="2"/>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="156" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -2198,11 +1940,11 @@
       <c r="I156" s="2"/>
       <c r="J156" s="2"/>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="157" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="2"/>
       <c r="B157" s="1"/>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="158" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -2214,7 +1956,7 @@
       <c r="I158" s="2"/>
       <c r="J158" s="2"/>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="159" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -2226,7 +1968,7 @@
       <c r="I159" s="2"/>
       <c r="J159" s="2"/>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="160" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -2238,7 +1980,7 @@
       <c r="I160" s="2"/>
       <c r="J160" s="2"/>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="161" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -2250,7 +1992,7 @@
       <c r="I161" s="2"/>
       <c r="J161" s="2"/>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="162" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -2262,11 +2004,11 @@
       <c r="I162" s="2"/>
       <c r="J162" s="2"/>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="163" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="2"/>
       <c r="B163" s="1"/>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="164" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -2278,7 +2020,7 @@
       <c r="I164" s="2"/>
       <c r="J164" s="2"/>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="165" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -2290,7 +2032,7 @@
       <c r="I165" s="2"/>
       <c r="J165" s="2"/>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="166" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -2302,7 +2044,7 @@
       <c r="I166" s="2"/>
       <c r="J166" s="2"/>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="167" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -2314,7 +2056,7 @@
       <c r="I167" s="2"/>
       <c r="J167" s="2"/>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="168" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -2326,11 +2068,11 @@
       <c r="I168" s="2"/>
       <c r="J168" s="2"/>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="169" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="2"/>
       <c r="B169" s="1"/>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="170" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -2342,7 +2084,7 @@
       <c r="I170" s="2"/>
       <c r="J170" s="2"/>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="171" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -2354,7 +2096,7 @@
       <c r="I171" s="2"/>
       <c r="J171" s="2"/>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="172" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -2366,7 +2108,7 @@
       <c r="I172" s="2"/>
       <c r="J172" s="2"/>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="173" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -2378,7 +2120,7 @@
       <c r="I173" s="2"/>
       <c r="J173" s="2"/>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="174" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -2390,11 +2132,11 @@
       <c r="I174" s="2"/>
       <c r="J174" s="2"/>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="175" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="2"/>
       <c r="B175" s="1"/>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="176" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -2406,7 +2148,7 @@
       <c r="I176" s="2"/>
       <c r="J176" s="2"/>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="177" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -2418,7 +2160,7 @@
       <c r="I177" s="2"/>
       <c r="J177" s="2"/>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="178" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -2430,7 +2172,7 @@
       <c r="I178" s="2"/>
       <c r="J178" s="2"/>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="179" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -2442,7 +2184,7 @@
       <c r="I179" s="2"/>
       <c r="J179" s="2"/>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="180" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -2454,11 +2196,11 @@
       <c r="I180" s="2"/>
       <c r="J180" s="2"/>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="181" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="2"/>
       <c r="B181" s="1"/>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="182" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -2470,7 +2212,7 @@
       <c r="I182" s="2"/>
       <c r="J182" s="2"/>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="183" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -2482,7 +2224,7 @@
       <c r="I183" s="2"/>
       <c r="J183" s="2"/>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="184" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -2494,7 +2236,7 @@
       <c r="I184" s="2"/>
       <c r="J184" s="2"/>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="185" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -2506,7 +2248,7 @@
       <c r="I185" s="2"/>
       <c r="J185" s="2"/>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="186" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -2518,11 +2260,11 @@
       <c r="I186" s="2"/>
       <c r="J186" s="2"/>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="187" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="2"/>
       <c r="B187" s="1"/>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="188" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -2534,7 +2276,7 @@
       <c r="I188" s="2"/>
       <c r="J188" s="2"/>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="189" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -2546,7 +2288,7 @@
       <c r="I189" s="2"/>
       <c r="J189" s="2"/>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="190" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -2558,7 +2300,7 @@
       <c r="I190" s="2"/>
       <c r="J190" s="2"/>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="191" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -2570,7 +2312,7 @@
       <c r="I191" s="2"/>
       <c r="J191" s="2"/>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="192" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -2582,11 +2324,11 @@
       <c r="I192" s="2"/>
       <c r="J192" s="2"/>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="193" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="2"/>
       <c r="B193" s="1"/>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="194" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -2598,7 +2340,7 @@
       <c r="I194" s="2"/>
       <c r="J194" s="2"/>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="195" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -2610,7 +2352,7 @@
       <c r="I195" s="2"/>
       <c r="J195" s="2"/>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="196" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -2622,7 +2364,7 @@
       <c r="I196" s="2"/>
       <c r="J196" s="2"/>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="197" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -2634,7 +2376,7 @@
       <c r="I197" s="2"/>
       <c r="J197" s="2"/>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="198" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -2646,11 +2388,11 @@
       <c r="I198" s="2"/>
       <c r="J198" s="2"/>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="199" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="2"/>
       <c r="B199" s="1"/>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="200" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -2662,7 +2404,7 @@
       <c r="I200" s="2"/>
       <c r="J200" s="2"/>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="201" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -2674,7 +2416,7 @@
       <c r="I201" s="2"/>
       <c r="J201" s="2"/>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="202" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -2686,7 +2428,7 @@
       <c r="I202" s="2"/>
       <c r="J202" s="2"/>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="203" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -2698,7 +2440,7 @@
       <c r="I203" s="2"/>
       <c r="J203" s="2"/>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="204" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -2710,11 +2452,11 @@
       <c r="I204" s="2"/>
       <c r="J204" s="2"/>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="205" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="2"/>
       <c r="B205" s="1"/>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="206" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -2726,7 +2468,7 @@
       <c r="I206" s="2"/>
       <c r="J206" s="2"/>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="207" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -2738,7 +2480,7 @@
       <c r="I207" s="2"/>
       <c r="J207" s="2"/>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="208" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -2750,7 +2492,7 @@
       <c r="I208" s="2"/>
       <c r="J208" s="2"/>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="209" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -2762,7 +2504,7 @@
       <c r="I209" s="2"/>
       <c r="J209" s="2"/>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="210" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -2774,11 +2516,11 @@
       <c r="I210" s="2"/>
       <c r="J210" s="2"/>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="211" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="2"/>
       <c r="B211" s="1"/>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="212" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -2790,7 +2532,7 @@
       <c r="I212" s="2"/>
       <c r="J212" s="2"/>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="213" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -2802,7 +2544,7 @@
       <c r="I213" s="2"/>
       <c r="J213" s="2"/>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="214" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -2814,7 +2556,7 @@
       <c r="I214" s="2"/>
       <c r="J214" s="2"/>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="215" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -2826,7 +2568,7 @@
       <c r="I215" s="2"/>
       <c r="J215" s="2"/>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="216" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -2838,11 +2580,11 @@
       <c r="I216" s="2"/>
       <c r="J216" s="2"/>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="217" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="2"/>
       <c r="B217" s="1"/>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="218" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -2854,7 +2596,7 @@
       <c r="I218" s="2"/>
       <c r="J218" s="2"/>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="219" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -2866,7 +2608,7 @@
       <c r="I219" s="2"/>
       <c r="J219" s="2"/>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="220" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -2878,7 +2620,7 @@
       <c r="I220" s="2"/>
       <c r="J220" s="2"/>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="221" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -2890,7 +2632,7 @@
       <c r="I221" s="2"/>
       <c r="J221" s="2"/>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="222" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -2902,11 +2644,11 @@
       <c r="I222" s="2"/>
       <c r="J222" s="2"/>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="223" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="2"/>
       <c r="B223" s="1"/>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="224" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -2918,7 +2660,7 @@
       <c r="I224" s="2"/>
       <c r="J224" s="2"/>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="225" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -2930,7 +2672,7 @@
       <c r="I225" s="2"/>
       <c r="J225" s="2"/>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="226" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -2942,7 +2684,7 @@
       <c r="I226" s="2"/>
       <c r="J226" s="2"/>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="227" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -2954,7 +2696,7 @@
       <c r="I227" s="2"/>
       <c r="J227" s="2"/>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="228" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -2966,11 +2708,11 @@
       <c r="I228" s="2"/>
       <c r="J228" s="2"/>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="229" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="2"/>
       <c r="B229" s="1"/>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="230" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -2982,7 +2724,7 @@
       <c r="I230" s="2"/>
       <c r="J230" s="2"/>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="231" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -2994,7 +2736,7 @@
       <c r="I231" s="2"/>
       <c r="J231" s="2"/>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="232" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -3006,7 +2748,7 @@
       <c r="I232" s="2"/>
       <c r="J232" s="2"/>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="233" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -3018,7 +2760,7 @@
       <c r="I233" s="2"/>
       <c r="J233" s="2"/>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="234" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -3030,11 +2772,11 @@
       <c r="I234" s="2"/>
       <c r="J234" s="2"/>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="235" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="2"/>
       <c r="B235" s="1"/>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="236" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -3046,7 +2788,7 @@
       <c r="I236" s="2"/>
       <c r="J236" s="2"/>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="237" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -3058,7 +2800,7 @@
       <c r="I237" s="2"/>
       <c r="J237" s="2"/>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="238" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -3070,7 +2812,7 @@
       <c r="I238" s="2"/>
       <c r="J238" s="2"/>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="239" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -3082,7 +2824,7 @@
       <c r="I239" s="2"/>
       <c r="J239" s="2"/>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="240" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -3094,13 +2836,17 @@
       <c r="I240" s="2"/>
       <c r="J240" s="2"/>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="241" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="2"/>
       <c r="B241" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/Assets/Excel/ExcelData.xlsx
+++ b/Assets/Excel/ExcelData.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2024\GitHub\FreeSummerFes\Assets\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E6286E-E58C-4713-803F-AA3D991E4AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Gun" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Gun" sheetId="1" r:id="rId1"/>
+    <sheet name="Object" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,67 +26,87 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
-    <t xml:space="preserve">id</t>
+    <t>id</t>
   </si>
   <si>
-    <t xml:space="preserve">gunName</t>
+    <t>gunName</t>
   </si>
   <si>
-    <t xml:space="preserve">bulletPower</t>
+    <t>bulletPower</t>
   </si>
   <si>
-    <t xml:space="preserve">displayName</t>
+    <t>displayName</t>
   </si>
   <si>
-    <t xml:space="preserve">bulletAmount</t>
+    <t>bulletAmount</t>
   </si>
   <si>
-    <t xml:space="preserve">ToyGun</t>
+    <t>ToyGun</t>
   </si>
   <si>
-    <t xml:space="preserve">おもちゃの銃</t>
+    <t>おもちゃの銃</t>
   </si>
   <si>
-    <t xml:space="preserve">WaterGun</t>
+    <t>WaterGun</t>
   </si>
   <si>
-    <t xml:space="preserve">水鉄砲</t>
+    <t>水鉄砲</t>
   </si>
   <si>
-    <t xml:space="preserve">CorkGun</t>
+    <t>CorkGun</t>
   </si>
   <si>
-    <t xml:space="preserve">コルク銃</t>
+    <t>コルク銃</t>
   </si>
   <si>
-    <t xml:space="preserve">AirGun</t>
+    <t>AirGun</t>
   </si>
   <si>
-    <t xml:space="preserve">エアガン</t>
+    <t>エアガン</t>
   </si>
   <si>
-    <t xml:space="preserve">RichAirGun</t>
+    <t>RichAirGun</t>
   </si>
   <si>
-    <t xml:space="preserve">高級エアガン</t>
+    <t>高級エアガン</t>
   </si>
   <si>
-    <t xml:space="preserve">Pistol</t>
+    <t>Pistol</t>
   </si>
   <si>
-    <t xml:space="preserve">拳銃</t>
+    <t>拳銃</t>
+  </si>
+  <si>
+    <t>objectName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cube</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>箱</t>
+    <rPh sb="0" eb="1">
+      <t>ハコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>maxPrice</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>minPrice</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -89,21 +115,9 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -116,7 +130,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -124,88 +138,365 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J241"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.63"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.62"/>
+    <col min="1" max="1" width="8.625" customWidth="1"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="3" max="3" width="11.5"/>
+    <col min="4" max="4" width="18.125" customWidth="1"/>
+    <col min="5" max="5" width="15.75" customWidth="1"/>
+    <col min="6" max="1025" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -217,20 +508,20 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2">
         <v>1000</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="2">
         <v>3</v>
       </c>
       <c r="F2" s="2"/>
@@ -239,37 +530,37 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3">
         <v>800</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3">
         <v>30</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4">
         <v>1500</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="2">
         <v>5</v>
       </c>
       <c r="F4" s="2"/>
@@ -278,20 +569,20 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5">
         <v>1500</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="2">
         <v>20</v>
       </c>
       <c r="F5" s="2"/>
@@ -300,20 +591,20 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6">
         <v>2000</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2"/>
@@ -322,20 +613,20 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+    <row r="7" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7">
         <v>3000</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="2" t="n">
+      <c r="E7" s="2">
         <v>6</v>
       </c>
       <c r="F7" s="2"/>
@@ -344,7 +635,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -356,7 +647,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -368,7 +659,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -380,7 +671,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -392,7 +683,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -404,11 +695,11 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -420,7 +711,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -432,7 +723,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -444,7 +735,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -456,7 +747,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -468,11 +759,11 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2"/>
       <c r="B19" s="1"/>
     </row>
-    <row r="20" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -484,7 +775,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -496,7 +787,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -508,7 +799,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -520,7 +811,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -532,11 +823,11 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="2"/>
       <c r="B25" s="1"/>
     </row>
-    <row r="26" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -548,7 +839,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -560,7 +851,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -572,7 +863,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -584,7 +875,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -596,11 +887,11 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2"/>
       <c r="B31" s="1"/>
     </row>
-    <row r="32" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -612,7 +903,7 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -624,7 +915,7 @@
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -636,7 +927,7 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -648,7 +939,7 @@
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -660,11 +951,11 @@
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
     </row>
-    <row r="37" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="2"/>
       <c r="B37" s="1"/>
     </row>
-    <row r="38" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -676,7 +967,7 @@
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -688,7 +979,7 @@
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -700,7 +991,7 @@
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -712,7 +1003,7 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -724,11 +1015,11 @@
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="2"/>
       <c r="B43" s="1"/>
     </row>
-    <row r="44" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -740,7 +1031,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -752,7 +1043,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -764,7 +1055,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -776,7 +1067,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -788,11 +1079,11 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="2"/>
       <c r="B49" s="1"/>
     </row>
-    <row r="50" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -804,7 +1095,7 @@
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -816,7 +1107,7 @@
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
     </row>
-    <row r="52" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -828,7 +1119,7 @@
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
     </row>
-    <row r="53" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -840,7 +1131,7 @@
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
     </row>
-    <row r="54" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -852,11 +1143,11 @@
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
     </row>
-    <row r="55" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="2"/>
       <c r="B55" s="1"/>
     </row>
-    <row r="56" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -868,7 +1159,7 @@
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
     </row>
-    <row r="57" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -880,7 +1171,7 @@
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
     </row>
-    <row r="58" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -892,7 +1183,7 @@
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
     </row>
-    <row r="59" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -904,7 +1195,7 @@
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
     </row>
-    <row r="60" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -916,11 +1207,11 @@
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
     </row>
-    <row r="61" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2"/>
       <c r="B61" s="1"/>
     </row>
-    <row r="62" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -932,7 +1223,7 @@
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
     </row>
-    <row r="63" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -944,7 +1235,7 @@
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
     </row>
-    <row r="64" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -956,7 +1247,7 @@
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
     </row>
-    <row r="65" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -968,7 +1259,7 @@
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
     </row>
-    <row r="66" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -980,11 +1271,11 @@
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
     </row>
-    <row r="67" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="2"/>
       <c r="B67" s="1"/>
     </row>
-    <row r="68" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -996,7 +1287,7 @@
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
     </row>
-    <row r="69" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -1008,7 +1299,7 @@
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
     </row>
-    <row r="70" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -1020,7 +1311,7 @@
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
     </row>
-    <row r="71" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -1032,7 +1323,7 @@
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
     </row>
-    <row r="72" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -1044,11 +1335,11 @@
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
     </row>
-    <row r="73" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="2"/>
       <c r="B73" s="1"/>
     </row>
-    <row r="74" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -1060,7 +1351,7 @@
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
     </row>
-    <row r="75" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -1072,7 +1363,7 @@
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
     </row>
-    <row r="76" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -1084,7 +1375,7 @@
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
     </row>
-    <row r="77" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -1096,7 +1387,7 @@
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
     </row>
-    <row r="78" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -1108,11 +1399,11 @@
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
     </row>
-    <row r="79" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="2"/>
       <c r="B79" s="1"/>
     </row>
-    <row r="80" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -1124,7 +1415,7 @@
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
     </row>
-    <row r="81" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -1136,7 +1427,7 @@
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
     </row>
-    <row r="82" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -1148,7 +1439,7 @@
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
     </row>
-    <row r="83" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -1160,7 +1451,7 @@
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
     </row>
-    <row r="84" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -1172,11 +1463,11 @@
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
     </row>
-    <row r="85" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="2"/>
       <c r="B85" s="1"/>
     </row>
-    <row r="86" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -1188,7 +1479,7 @@
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
     </row>
-    <row r="87" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -1200,7 +1491,7 @@
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
     </row>
-    <row r="88" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -1212,7 +1503,7 @@
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
     </row>
-    <row r="89" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -1224,7 +1515,7 @@
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
     </row>
-    <row r="90" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -1236,11 +1527,11 @@
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
     </row>
-    <row r="91" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="2"/>
       <c r="B91" s="1"/>
     </row>
-    <row r="92" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -1252,7 +1543,7 @@
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
     </row>
-    <row r="93" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -1264,7 +1555,7 @@
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
     </row>
-    <row r="94" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -1276,7 +1567,7 @@
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
     </row>
-    <row r="95" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -1288,7 +1579,7 @@
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
     </row>
-    <row r="96" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -1300,11 +1591,11 @@
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
     </row>
-    <row r="97" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="2"/>
       <c r="B97" s="1"/>
     </row>
-    <row r="98" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -1316,7 +1607,7 @@
       <c r="I98" s="2"/>
       <c r="J98" s="2"/>
     </row>
-    <row r="99" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -1328,7 +1619,7 @@
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
     </row>
-    <row r="100" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -1340,7 +1631,7 @@
       <c r="I100" s="2"/>
       <c r="J100" s="2"/>
     </row>
-    <row r="101" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -1352,7 +1643,7 @@
       <c r="I101" s="2"/>
       <c r="J101" s="2"/>
     </row>
-    <row r="102" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -1364,11 +1655,11 @@
       <c r="I102" s="2"/>
       <c r="J102" s="2"/>
     </row>
-    <row r="103" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="2"/>
       <c r="B103" s="1"/>
     </row>
-    <row r="104" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -1380,7 +1671,7 @@
       <c r="I104" s="2"/>
       <c r="J104" s="2"/>
     </row>
-    <row r="105" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -1392,7 +1683,7 @@
       <c r="I105" s="2"/>
       <c r="J105" s="2"/>
     </row>
-    <row r="106" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -1404,7 +1695,7 @@
       <c r="I106" s="2"/>
       <c r="J106" s="2"/>
     </row>
-    <row r="107" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -1416,7 +1707,7 @@
       <c r="I107" s="2"/>
       <c r="J107" s="2"/>
     </row>
-    <row r="108" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -1428,11 +1719,11 @@
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
     </row>
-    <row r="109" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A109" s="2"/>
       <c r="B109" s="1"/>
     </row>
-    <row r="110" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -1444,7 +1735,7 @@
       <c r="I110" s="2"/>
       <c r="J110" s="2"/>
     </row>
-    <row r="111" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -1456,7 +1747,7 @@
       <c r="I111" s="2"/>
       <c r="J111" s="2"/>
     </row>
-    <row r="112" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -1468,7 +1759,7 @@
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
     </row>
-    <row r="113" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -1480,7 +1771,7 @@
       <c r="I113" s="2"/>
       <c r="J113" s="2"/>
     </row>
-    <row r="114" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -1492,11 +1783,11 @@
       <c r="I114" s="2"/>
       <c r="J114" s="2"/>
     </row>
-    <row r="115" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A115" s="2"/>
       <c r="B115" s="1"/>
     </row>
-    <row r="116" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -1508,7 +1799,7 @@
       <c r="I116" s="2"/>
       <c r="J116" s="2"/>
     </row>
-    <row r="117" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -1520,7 +1811,7 @@
       <c r="I117" s="2"/>
       <c r="J117" s="2"/>
     </row>
-    <row r="118" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -1532,7 +1823,7 @@
       <c r="I118" s="2"/>
       <c r="J118" s="2"/>
     </row>
-    <row r="119" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -1544,7 +1835,7 @@
       <c r="I119" s="2"/>
       <c r="J119" s="2"/>
     </row>
-    <row r="120" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -1556,11 +1847,11 @@
       <c r="I120" s="2"/>
       <c r="J120" s="2"/>
     </row>
-    <row r="121" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A121" s="2"/>
       <c r="B121" s="1"/>
     </row>
-    <row r="122" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -1572,7 +1863,7 @@
       <c r="I122" s="2"/>
       <c r="J122" s="2"/>
     </row>
-    <row r="123" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -1584,7 +1875,7 @@
       <c r="I123" s="2"/>
       <c r="J123" s="2"/>
     </row>
-    <row r="124" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -1596,7 +1887,7 @@
       <c r="I124" s="2"/>
       <c r="J124" s="2"/>
     </row>
-    <row r="125" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -1608,7 +1899,7 @@
       <c r="I125" s="2"/>
       <c r="J125" s="2"/>
     </row>
-    <row r="126" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -1620,11 +1911,11 @@
       <c r="I126" s="2"/>
       <c r="J126" s="2"/>
     </row>
-    <row r="127" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A127" s="2"/>
       <c r="B127" s="1"/>
     </row>
-    <row r="128" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -1636,7 +1927,7 @@
       <c r="I128" s="2"/>
       <c r="J128" s="2"/>
     </row>
-    <row r="129" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -1648,7 +1939,7 @@
       <c r="I129" s="2"/>
       <c r="J129" s="2"/>
     </row>
-    <row r="130" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -1660,7 +1951,7 @@
       <c r="I130" s="2"/>
       <c r="J130" s="2"/>
     </row>
-    <row r="131" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -1672,7 +1963,7 @@
       <c r="I131" s="2"/>
       <c r="J131" s="2"/>
     </row>
-    <row r="132" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -1684,11 +1975,11 @@
       <c r="I132" s="2"/>
       <c r="J132" s="2"/>
     </row>
-    <row r="133" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A133" s="2"/>
       <c r="B133" s="1"/>
     </row>
-    <row r="134" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -1700,7 +1991,7 @@
       <c r="I134" s="2"/>
       <c r="J134" s="2"/>
     </row>
-    <row r="135" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -1712,7 +2003,7 @@
       <c r="I135" s="2"/>
       <c r="J135" s="2"/>
     </row>
-    <row r="136" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -1724,7 +2015,7 @@
       <c r="I136" s="2"/>
       <c r="J136" s="2"/>
     </row>
-    <row r="137" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -1736,7 +2027,7 @@
       <c r="I137" s="2"/>
       <c r="J137" s="2"/>
     </row>
-    <row r="138" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -1748,11 +2039,11 @@
       <c r="I138" s="2"/>
       <c r="J138" s="2"/>
     </row>
-    <row r="139" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A139" s="2"/>
       <c r="B139" s="1"/>
     </row>
-    <row r="140" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -1764,7 +2055,7 @@
       <c r="I140" s="2"/>
       <c r="J140" s="2"/>
     </row>
-    <row r="141" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -1776,7 +2067,7 @@
       <c r="I141" s="2"/>
       <c r="J141" s="2"/>
     </row>
-    <row r="142" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -1788,7 +2079,7 @@
       <c r="I142" s="2"/>
       <c r="J142" s="2"/>
     </row>
-    <row r="143" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -1800,7 +2091,7 @@
       <c r="I143" s="2"/>
       <c r="J143" s="2"/>
     </row>
-    <row r="144" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -1812,11 +2103,11 @@
       <c r="I144" s="2"/>
       <c r="J144" s="2"/>
     </row>
-    <row r="145" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A145" s="2"/>
       <c r="B145" s="1"/>
     </row>
-    <row r="146" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -1828,7 +2119,7 @@
       <c r="I146" s="2"/>
       <c r="J146" s="2"/>
     </row>
-    <row r="147" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -1840,7 +2131,7 @@
       <c r="I147" s="2"/>
       <c r="J147" s="2"/>
     </row>
-    <row r="148" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -1852,7 +2143,7 @@
       <c r="I148" s="2"/>
       <c r="J148" s="2"/>
     </row>
-    <row r="149" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -1864,7 +2155,7 @@
       <c r="I149" s="2"/>
       <c r="J149" s="2"/>
     </row>
-    <row r="150" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -1876,11 +2167,11 @@
       <c r="I150" s="2"/>
       <c r="J150" s="2"/>
     </row>
-    <row r="151" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A151" s="2"/>
       <c r="B151" s="1"/>
     </row>
-    <row r="152" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -1892,7 +2183,7 @@
       <c r="I152" s="2"/>
       <c r="J152" s="2"/>
     </row>
-    <row r="153" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -1904,7 +2195,7 @@
       <c r="I153" s="2"/>
       <c r="J153" s="2"/>
     </row>
-    <row r="154" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -1916,7 +2207,7 @@
       <c r="I154" s="2"/>
       <c r="J154" s="2"/>
     </row>
-    <row r="155" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -1928,7 +2219,7 @@
       <c r="I155" s="2"/>
       <c r="J155" s="2"/>
     </row>
-    <row r="156" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -1940,11 +2231,11 @@
       <c r="I156" s="2"/>
       <c r="J156" s="2"/>
     </row>
-    <row r="157" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A157" s="2"/>
       <c r="B157" s="1"/>
     </row>
-    <row r="158" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -1956,7 +2247,7 @@
       <c r="I158" s="2"/>
       <c r="J158" s="2"/>
     </row>
-    <row r="159" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -1968,7 +2259,7 @@
       <c r="I159" s="2"/>
       <c r="J159" s="2"/>
     </row>
-    <row r="160" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -1980,7 +2271,7 @@
       <c r="I160" s="2"/>
       <c r="J160" s="2"/>
     </row>
-    <row r="161" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -1992,7 +2283,7 @@
       <c r="I161" s="2"/>
       <c r="J161" s="2"/>
     </row>
-    <row r="162" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -2004,11 +2295,11 @@
       <c r="I162" s="2"/>
       <c r="J162" s="2"/>
     </row>
-    <row r="163" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A163" s="2"/>
       <c r="B163" s="1"/>
     </row>
-    <row r="164" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -2020,7 +2311,7 @@
       <c r="I164" s="2"/>
       <c r="J164" s="2"/>
     </row>
-    <row r="165" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -2032,7 +2323,7 @@
       <c r="I165" s="2"/>
       <c r="J165" s="2"/>
     </row>
-    <row r="166" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -2044,7 +2335,7 @@
       <c r="I166" s="2"/>
       <c r="J166" s="2"/>
     </row>
-    <row r="167" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -2056,7 +2347,7 @@
       <c r="I167" s="2"/>
       <c r="J167" s="2"/>
     </row>
-    <row r="168" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -2068,11 +2359,11 @@
       <c r="I168" s="2"/>
       <c r="J168" s="2"/>
     </row>
-    <row r="169" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A169" s="2"/>
       <c r="B169" s="1"/>
     </row>
-    <row r="170" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -2084,7 +2375,7 @@
       <c r="I170" s="2"/>
       <c r="J170" s="2"/>
     </row>
-    <row r="171" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -2096,7 +2387,7 @@
       <c r="I171" s="2"/>
       <c r="J171" s="2"/>
     </row>
-    <row r="172" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -2108,7 +2399,7 @@
       <c r="I172" s="2"/>
       <c r="J172" s="2"/>
     </row>
-    <row r="173" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -2120,7 +2411,7 @@
       <c r="I173" s="2"/>
       <c r="J173" s="2"/>
     </row>
-    <row r="174" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -2132,11 +2423,11 @@
       <c r="I174" s="2"/>
       <c r="J174" s="2"/>
     </row>
-    <row r="175" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A175" s="2"/>
       <c r="B175" s="1"/>
     </row>
-    <row r="176" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -2148,7 +2439,7 @@
       <c r="I176" s="2"/>
       <c r="J176" s="2"/>
     </row>
-    <row r="177" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -2160,7 +2451,7 @@
       <c r="I177" s="2"/>
       <c r="J177" s="2"/>
     </row>
-    <row r="178" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -2172,7 +2463,7 @@
       <c r="I178" s="2"/>
       <c r="J178" s="2"/>
     </row>
-    <row r="179" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -2184,7 +2475,7 @@
       <c r="I179" s="2"/>
       <c r="J179" s="2"/>
     </row>
-    <row r="180" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -2196,11 +2487,11 @@
       <c r="I180" s="2"/>
       <c r="J180" s="2"/>
     </row>
-    <row r="181" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A181" s="2"/>
       <c r="B181" s="1"/>
     </row>
-    <row r="182" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -2212,7 +2503,7 @@
       <c r="I182" s="2"/>
       <c r="J182" s="2"/>
     </row>
-    <row r="183" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -2224,7 +2515,7 @@
       <c r="I183" s="2"/>
       <c r="J183" s="2"/>
     </row>
-    <row r="184" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -2236,7 +2527,7 @@
       <c r="I184" s="2"/>
       <c r="J184" s="2"/>
     </row>
-    <row r="185" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -2248,7 +2539,7 @@
       <c r="I185" s="2"/>
       <c r="J185" s="2"/>
     </row>
-    <row r="186" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -2260,11 +2551,11 @@
       <c r="I186" s="2"/>
       <c r="J186" s="2"/>
     </row>
-    <row r="187" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A187" s="2"/>
       <c r="B187" s="1"/>
     </row>
-    <row r="188" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -2276,7 +2567,7 @@
       <c r="I188" s="2"/>
       <c r="J188" s="2"/>
     </row>
-    <row r="189" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -2288,7 +2579,7 @@
       <c r="I189" s="2"/>
       <c r="J189" s="2"/>
     </row>
-    <row r="190" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -2300,7 +2591,7 @@
       <c r="I190" s="2"/>
       <c r="J190" s="2"/>
     </row>
-    <row r="191" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -2312,7 +2603,7 @@
       <c r="I191" s="2"/>
       <c r="J191" s="2"/>
     </row>
-    <row r="192" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -2324,11 +2615,11 @@
       <c r="I192" s="2"/>
       <c r="J192" s="2"/>
     </row>
-    <row r="193" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A193" s="2"/>
       <c r="B193" s="1"/>
     </row>
-    <row r="194" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -2340,7 +2631,7 @@
       <c r="I194" s="2"/>
       <c r="J194" s="2"/>
     </row>
-    <row r="195" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -2352,7 +2643,7 @@
       <c r="I195" s="2"/>
       <c r="J195" s="2"/>
     </row>
-    <row r="196" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -2364,7 +2655,7 @@
       <c r="I196" s="2"/>
       <c r="J196" s="2"/>
     </row>
-    <row r="197" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -2376,7 +2667,7 @@
       <c r="I197" s="2"/>
       <c r="J197" s="2"/>
     </row>
-    <row r="198" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -2388,11 +2679,11 @@
       <c r="I198" s="2"/>
       <c r="J198" s="2"/>
     </row>
-    <row r="199" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A199" s="2"/>
       <c r="B199" s="1"/>
     </row>
-    <row r="200" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -2404,7 +2695,7 @@
       <c r="I200" s="2"/>
       <c r="J200" s="2"/>
     </row>
-    <row r="201" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -2416,7 +2707,7 @@
       <c r="I201" s="2"/>
       <c r="J201" s="2"/>
     </row>
-    <row r="202" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -2428,7 +2719,7 @@
       <c r="I202" s="2"/>
       <c r="J202" s="2"/>
     </row>
-    <row r="203" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -2440,7 +2731,7 @@
       <c r="I203" s="2"/>
       <c r="J203" s="2"/>
     </row>
-    <row r="204" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -2452,11 +2743,11 @@
       <c r="I204" s="2"/>
       <c r="J204" s="2"/>
     </row>
-    <row r="205" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A205" s="2"/>
       <c r="B205" s="1"/>
     </row>
-    <row r="206" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -2468,7 +2759,7 @@
       <c r="I206" s="2"/>
       <c r="J206" s="2"/>
     </row>
-    <row r="207" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -2480,7 +2771,7 @@
       <c r="I207" s="2"/>
       <c r="J207" s="2"/>
     </row>
-    <row r="208" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -2492,7 +2783,7 @@
       <c r="I208" s="2"/>
       <c r="J208" s="2"/>
     </row>
-    <row r="209" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -2504,7 +2795,7 @@
       <c r="I209" s="2"/>
       <c r="J209" s="2"/>
     </row>
-    <row r="210" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -2516,11 +2807,11 @@
       <c r="I210" s="2"/>
       <c r="J210" s="2"/>
     </row>
-    <row r="211" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A211" s="2"/>
       <c r="B211" s="1"/>
     </row>
-    <row r="212" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -2532,7 +2823,7 @@
       <c r="I212" s="2"/>
       <c r="J212" s="2"/>
     </row>
-    <row r="213" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -2544,7 +2835,7 @@
       <c r="I213" s="2"/>
       <c r="J213" s="2"/>
     </row>
-    <row r="214" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -2556,7 +2847,7 @@
       <c r="I214" s="2"/>
       <c r="J214" s="2"/>
     </row>
-    <row r="215" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -2568,7 +2859,7 @@
       <c r="I215" s="2"/>
       <c r="J215" s="2"/>
     </row>
-    <row r="216" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -2580,11 +2871,11 @@
       <c r="I216" s="2"/>
       <c r="J216" s="2"/>
     </row>
-    <row r="217" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A217" s="2"/>
       <c r="B217" s="1"/>
     </row>
-    <row r="218" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -2596,7 +2887,7 @@
       <c r="I218" s="2"/>
       <c r="J218" s="2"/>
     </row>
-    <row r="219" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -2608,7 +2899,7 @@
       <c r="I219" s="2"/>
       <c r="J219" s="2"/>
     </row>
-    <row r="220" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -2620,7 +2911,7 @@
       <c r="I220" s="2"/>
       <c r="J220" s="2"/>
     </row>
-    <row r="221" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -2632,7 +2923,7 @@
       <c r="I221" s="2"/>
       <c r="J221" s="2"/>
     </row>
-    <row r="222" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -2644,11 +2935,11 @@
       <c r="I222" s="2"/>
       <c r="J222" s="2"/>
     </row>
-    <row r="223" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A223" s="2"/>
       <c r="B223" s="1"/>
     </row>
-    <row r="224" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -2660,7 +2951,7 @@
       <c r="I224" s="2"/>
       <c r="J224" s="2"/>
     </row>
-    <row r="225" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -2672,7 +2963,7 @@
       <c r="I225" s="2"/>
       <c r="J225" s="2"/>
     </row>
-    <row r="226" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -2684,7 +2975,7 @@
       <c r="I226" s="2"/>
       <c r="J226" s="2"/>
     </row>
-    <row r="227" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -2696,7 +2987,7 @@
       <c r="I227" s="2"/>
       <c r="J227" s="2"/>
     </row>
-    <row r="228" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -2708,11 +2999,11 @@
       <c r="I228" s="2"/>
       <c r="J228" s="2"/>
     </row>
-    <row r="229" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A229" s="2"/>
       <c r="B229" s="1"/>
     </row>
-    <row r="230" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -2724,7 +3015,7 @@
       <c r="I230" s="2"/>
       <c r="J230" s="2"/>
     </row>
-    <row r="231" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -2736,7 +3027,7 @@
       <c r="I231" s="2"/>
       <c r="J231" s="2"/>
     </row>
-    <row r="232" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -2748,7 +3039,7 @@
       <c r="I232" s="2"/>
       <c r="J232" s="2"/>
     </row>
-    <row r="233" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -2760,7 +3051,7 @@
       <c r="I233" s="2"/>
       <c r="J233" s="2"/>
     </row>
-    <row r="234" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -2772,11 +3063,11 @@
       <c r="I234" s="2"/>
       <c r="J234" s="2"/>
     </row>
-    <row r="235" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A235" s="2"/>
       <c r="B235" s="1"/>
     </row>
-    <row r="236" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -2788,7 +3079,7 @@
       <c r="I236" s="2"/>
       <c r="J236" s="2"/>
     </row>
-    <row r="237" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -2800,7 +3091,7 @@
       <c r="I237" s="2"/>
       <c r="J237" s="2"/>
     </row>
-    <row r="238" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -2812,7 +3103,7 @@
       <c r="I238" s="2"/>
       <c r="J238" s="2"/>
     </row>
-    <row r="239" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -2824,7 +3115,7 @@
       <c r="I239" s="2"/>
       <c r="J239" s="2"/>
     </row>
-    <row r="240" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -2836,17 +3127,1815 @@
       <c r="I240" s="2"/>
       <c r="J240" s="2"/>
     </row>
-    <row r="241" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A241" s="2"/>
       <c r="B241" s="1"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D6D1368-AF3F-4A25-AF55-E2182341AA03}">
+  <dimension ref="A1:F241"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="8.625" customWidth="1"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
+    <col min="4" max="4" width="11.25" customWidth="1"/>
+    <col min="5" max="5" width="15.75" customWidth="1"/>
+    <col min="6" max="6" width="9.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E2" s="2">
+        <v>100</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="3"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="3"/>
+    </row>
+    <row r="51" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="3"/>
+    </row>
+    <row r="52" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="3"/>
+    </row>
+    <row r="53" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="3"/>
+    </row>
+    <row r="54" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="3"/>
+    </row>
+    <row r="55" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+    </row>
+    <row r="56" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="3"/>
+    </row>
+    <row r="57" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="3"/>
+    </row>
+    <row r="58" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="3"/>
+    </row>
+    <row r="59" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="3"/>
+    </row>
+    <row r="60" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="3"/>
+    </row>
+    <row r="61" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+    </row>
+    <row r="62" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="3"/>
+    </row>
+    <row r="63" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="3"/>
+    </row>
+    <row r="64" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="3"/>
+    </row>
+    <row r="65" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="3"/>
+    </row>
+    <row r="66" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="3"/>
+    </row>
+    <row r="67" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+    </row>
+    <row r="68" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="3"/>
+    </row>
+    <row r="69" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="3"/>
+    </row>
+    <row r="70" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="3"/>
+    </row>
+    <row r="71" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="3"/>
+    </row>
+    <row r="72" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="3"/>
+    </row>
+    <row r="73" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+    </row>
+    <row r="74" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="3"/>
+    </row>
+    <row r="75" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="3"/>
+    </row>
+    <row r="76" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="3"/>
+    </row>
+    <row r="77" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="3"/>
+    </row>
+    <row r="78" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="3"/>
+    </row>
+    <row r="79" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+    </row>
+    <row r="80" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="3"/>
+    </row>
+    <row r="81" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="3"/>
+    </row>
+    <row r="82" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="3"/>
+    </row>
+    <row r="83" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="3"/>
+    </row>
+    <row r="84" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="3"/>
+    </row>
+    <row r="85" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+    </row>
+    <row r="86" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="3"/>
+    </row>
+    <row r="87" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A87" s="2"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="3"/>
+    </row>
+    <row r="88" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="3"/>
+    </row>
+    <row r="89" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="3"/>
+    </row>
+    <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="3"/>
+    </row>
+    <row r="91" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+    </row>
+    <row r="92" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="3"/>
+    </row>
+    <row r="93" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A93" s="2"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="3"/>
+    </row>
+    <row r="94" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A94" s="2"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="3"/>
+    </row>
+    <row r="95" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A95" s="2"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="3"/>
+    </row>
+    <row r="96" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="3"/>
+    </row>
+    <row r="97" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A97" s="2"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+    </row>
+    <row r="98" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A98" s="2"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="3"/>
+    </row>
+    <row r="99" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A99" s="2"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="3"/>
+    </row>
+    <row r="100" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A100" s="2"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="3"/>
+    </row>
+    <row r="101" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A101" s="2"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="3"/>
+    </row>
+    <row r="102" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A102" s="2"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="3"/>
+    </row>
+    <row r="103" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A103" s="2"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="3"/>
+    </row>
+    <row r="104" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A104" s="2"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="3"/>
+    </row>
+    <row r="105" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A105" s="2"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="3"/>
+    </row>
+    <row r="106" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A106" s="2"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="3"/>
+    </row>
+    <row r="107" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A107" s="2"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="3"/>
+    </row>
+    <row r="108" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A108" s="2"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="3"/>
+    </row>
+    <row r="109" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A109" s="2"/>
+      <c r="B109" s="2"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="3"/>
+      <c r="E109" s="3"/>
+      <c r="F109" s="3"/>
+    </row>
+    <row r="110" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A110" s="2"/>
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="3"/>
+    </row>
+    <row r="111" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A111" s="2"/>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="3"/>
+    </row>
+    <row r="112" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A112" s="2"/>
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="3"/>
+    </row>
+    <row r="113" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A113" s="2"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="3"/>
+    </row>
+    <row r="114" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A114" s="2"/>
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="3"/>
+    </row>
+    <row r="115" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A115" s="2"/>
+      <c r="B115" s="2"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="3"/>
+      <c r="E115" s="3"/>
+      <c r="F115" s="3"/>
+    </row>
+    <row r="116" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A116" s="2"/>
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="3"/>
+    </row>
+    <row r="117" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A117" s="2"/>
+      <c r="B117" s="2"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="3"/>
+    </row>
+    <row r="118" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A118" s="2"/>
+      <c r="B118" s="2"/>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="3"/>
+    </row>
+    <row r="119" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A119" s="2"/>
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="3"/>
+    </row>
+    <row r="120" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A120" s="2"/>
+      <c r="B120" s="2"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="3"/>
+    </row>
+    <row r="121" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A121" s="2"/>
+      <c r="B121" s="2"/>
+      <c r="C121" s="3"/>
+      <c r="D121" s="3"/>
+      <c r="E121" s="3"/>
+      <c r="F121" s="3"/>
+    </row>
+    <row r="122" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A122" s="2"/>
+      <c r="B122" s="2"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2"/>
+      <c r="F122" s="3"/>
+    </row>
+    <row r="123" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A123" s="2"/>
+      <c r="B123" s="2"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="3"/>
+    </row>
+    <row r="124" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A124" s="2"/>
+      <c r="B124" s="2"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="3"/>
+    </row>
+    <row r="125" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A125" s="2"/>
+      <c r="B125" s="2"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2"/>
+      <c r="F125" s="3"/>
+    </row>
+    <row r="126" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A126" s="2"/>
+      <c r="B126" s="2"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="3"/>
+    </row>
+    <row r="127" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A127" s="2"/>
+      <c r="B127" s="2"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="3"/>
+      <c r="E127" s="3"/>
+      <c r="F127" s="3"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A128" s="2"/>
+      <c r="B128" s="2"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A129" s="2"/>
+      <c r="B129" s="2"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A130" s="2"/>
+      <c r="B130" s="2"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="2"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A131" s="2"/>
+      <c r="B131" s="2"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="2"/>
+      <c r="E131" s="2"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A132" s="2"/>
+      <c r="B132" s="2"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A133" s="2"/>
+      <c r="B133" s="1"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A134" s="2"/>
+      <c r="B134" s="2"/>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A135" s="2"/>
+      <c r="B135" s="2"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
+      <c r="E135" s="2"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A136" s="2"/>
+      <c r="B136" s="2"/>
+      <c r="C136" s="2"/>
+      <c r="D136" s="2"/>
+      <c r="E136" s="2"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A137" s="2"/>
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A138" s="2"/>
+      <c r="B138" s="2"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
+      <c r="E138" s="2"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A139" s="2"/>
+      <c r="B139" s="1"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A140" s="2"/>
+      <c r="B140" s="2"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
+      <c r="E140" s="2"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A141" s="2"/>
+      <c r="B141" s="2"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
+      <c r="E141" s="2"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A142" s="2"/>
+      <c r="B142" s="2"/>
+      <c r="C142" s="2"/>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A143" s="2"/>
+      <c r="B143" s="2"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
+      <c r="E143" s="2"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A144" s="2"/>
+      <c r="B144" s="2"/>
+      <c r="C144" s="2"/>
+      <c r="D144" s="2"/>
+      <c r="E144" s="2"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A145" s="2"/>
+      <c r="B145" s="1"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A146" s="2"/>
+      <c r="B146" s="2"/>
+      <c r="C146" s="2"/>
+      <c r="D146" s="2"/>
+      <c r="E146" s="2"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A147" s="2"/>
+      <c r="B147" s="2"/>
+      <c r="C147" s="2"/>
+      <c r="D147" s="2"/>
+      <c r="E147" s="2"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A148" s="2"/>
+      <c r="B148" s="2"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A149" s="2"/>
+      <c r="B149" s="2"/>
+      <c r="C149" s="2"/>
+      <c r="D149" s="2"/>
+      <c r="E149" s="2"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A150" s="2"/>
+      <c r="B150" s="2"/>
+      <c r="C150" s="2"/>
+      <c r="D150" s="2"/>
+      <c r="E150" s="2"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A151" s="2"/>
+      <c r="B151" s="1"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A152" s="2"/>
+      <c r="B152" s="2"/>
+      <c r="C152" s="2"/>
+      <c r="D152" s="2"/>
+      <c r="E152" s="2"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A153" s="2"/>
+      <c r="B153" s="2"/>
+      <c r="C153" s="2"/>
+      <c r="D153" s="2"/>
+      <c r="E153" s="2"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A154" s="2"/>
+      <c r="B154" s="2"/>
+      <c r="C154" s="2"/>
+      <c r="D154" s="2"/>
+      <c r="E154" s="2"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A155" s="2"/>
+      <c r="B155" s="2"/>
+      <c r="C155" s="2"/>
+      <c r="D155" s="2"/>
+      <c r="E155" s="2"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A156" s="2"/>
+      <c r="B156" s="2"/>
+      <c r="C156" s="2"/>
+      <c r="D156" s="2"/>
+      <c r="E156" s="2"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A157" s="2"/>
+      <c r="B157" s="1"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A158" s="2"/>
+      <c r="B158" s="2"/>
+      <c r="C158" s="2"/>
+      <c r="D158" s="2"/>
+      <c r="E158" s="2"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A159" s="2"/>
+      <c r="B159" s="2"/>
+      <c r="C159" s="2"/>
+      <c r="D159" s="2"/>
+      <c r="E159" s="2"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A160" s="2"/>
+      <c r="B160" s="2"/>
+      <c r="C160" s="2"/>
+      <c r="D160" s="2"/>
+      <c r="E160" s="2"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A161" s="2"/>
+      <c r="B161" s="2"/>
+      <c r="C161" s="2"/>
+      <c r="D161" s="2"/>
+      <c r="E161" s="2"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A162" s="2"/>
+      <c r="B162" s="2"/>
+      <c r="C162" s="2"/>
+      <c r="D162" s="2"/>
+      <c r="E162" s="2"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A163" s="2"/>
+      <c r="B163" s="1"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A164" s="2"/>
+      <c r="B164" s="2"/>
+      <c r="C164" s="2"/>
+      <c r="D164" s="2"/>
+      <c r="E164" s="2"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A165" s="2"/>
+      <c r="B165" s="2"/>
+      <c r="C165" s="2"/>
+      <c r="D165" s="2"/>
+      <c r="E165" s="2"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A166" s="2"/>
+      <c r="B166" s="2"/>
+      <c r="C166" s="2"/>
+      <c r="D166" s="2"/>
+      <c r="E166" s="2"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A167" s="2"/>
+      <c r="B167" s="2"/>
+      <c r="C167" s="2"/>
+      <c r="D167" s="2"/>
+      <c r="E167" s="2"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A168" s="2"/>
+      <c r="B168" s="2"/>
+      <c r="C168" s="2"/>
+      <c r="D168" s="2"/>
+      <c r="E168" s="2"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A169" s="2"/>
+      <c r="B169" s="1"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A170" s="2"/>
+      <c r="B170" s="2"/>
+      <c r="C170" s="2"/>
+      <c r="D170" s="2"/>
+      <c r="E170" s="2"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A171" s="2"/>
+      <c r="B171" s="2"/>
+      <c r="C171" s="2"/>
+      <c r="D171" s="2"/>
+      <c r="E171" s="2"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A172" s="2"/>
+      <c r="B172" s="2"/>
+      <c r="C172" s="2"/>
+      <c r="D172" s="2"/>
+      <c r="E172" s="2"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A173" s="2"/>
+      <c r="B173" s="2"/>
+      <c r="C173" s="2"/>
+      <c r="D173" s="2"/>
+      <c r="E173" s="2"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A174" s="2"/>
+      <c r="B174" s="2"/>
+      <c r="C174" s="2"/>
+      <c r="D174" s="2"/>
+      <c r="E174" s="2"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A175" s="2"/>
+      <c r="B175" s="1"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A176" s="2"/>
+      <c r="B176" s="2"/>
+      <c r="C176" s="2"/>
+      <c r="D176" s="2"/>
+      <c r="E176" s="2"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A177" s="2"/>
+      <c r="B177" s="2"/>
+      <c r="C177" s="2"/>
+      <c r="D177" s="2"/>
+      <c r="E177" s="2"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A178" s="2"/>
+      <c r="B178" s="2"/>
+      <c r="C178" s="2"/>
+      <c r="D178" s="2"/>
+      <c r="E178" s="2"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A179" s="2"/>
+      <c r="B179" s="2"/>
+      <c r="C179" s="2"/>
+      <c r="D179" s="2"/>
+      <c r="E179" s="2"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A180" s="2"/>
+      <c r="B180" s="2"/>
+      <c r="C180" s="2"/>
+      <c r="D180" s="2"/>
+      <c r="E180" s="2"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A181" s="2"/>
+      <c r="B181" s="1"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A182" s="2"/>
+      <c r="B182" s="2"/>
+      <c r="C182" s="2"/>
+      <c r="D182" s="2"/>
+      <c r="E182" s="2"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A183" s="2"/>
+      <c r="B183" s="2"/>
+      <c r="C183" s="2"/>
+      <c r="D183" s="2"/>
+      <c r="E183" s="2"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A184" s="2"/>
+      <c r="B184" s="2"/>
+      <c r="C184" s="2"/>
+      <c r="D184" s="2"/>
+      <c r="E184" s="2"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A185" s="2"/>
+      <c r="B185" s="2"/>
+      <c r="C185" s="2"/>
+      <c r="D185" s="2"/>
+      <c r="E185" s="2"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A186" s="2"/>
+      <c r="B186" s="2"/>
+      <c r="C186" s="2"/>
+      <c r="D186" s="2"/>
+      <c r="E186" s="2"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A187" s="2"/>
+      <c r="B187" s="1"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A188" s="2"/>
+      <c r="B188" s="2"/>
+      <c r="C188" s="2"/>
+      <c r="D188" s="2"/>
+      <c r="E188" s="2"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A189" s="2"/>
+      <c r="B189" s="2"/>
+      <c r="C189" s="2"/>
+      <c r="D189" s="2"/>
+      <c r="E189" s="2"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A190" s="2"/>
+      <c r="B190" s="2"/>
+      <c r="C190" s="2"/>
+      <c r="D190" s="2"/>
+      <c r="E190" s="2"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A191" s="2"/>
+      <c r="B191" s="2"/>
+      <c r="C191" s="2"/>
+      <c r="D191" s="2"/>
+      <c r="E191" s="2"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A192" s="2"/>
+      <c r="B192" s="2"/>
+      <c r="C192" s="2"/>
+      <c r="D192" s="2"/>
+      <c r="E192" s="2"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A193" s="2"/>
+      <c r="B193" s="1"/>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A194" s="2"/>
+      <c r="B194" s="2"/>
+      <c r="C194" s="2"/>
+      <c r="D194" s="2"/>
+      <c r="E194" s="2"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A195" s="2"/>
+      <c r="B195" s="2"/>
+      <c r="C195" s="2"/>
+      <c r="D195" s="2"/>
+      <c r="E195" s="2"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A196" s="2"/>
+      <c r="B196" s="2"/>
+      <c r="C196" s="2"/>
+      <c r="D196" s="2"/>
+      <c r="E196" s="2"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A197" s="2"/>
+      <c r="B197" s="2"/>
+      <c r="C197" s="2"/>
+      <c r="D197" s="2"/>
+      <c r="E197" s="2"/>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A198" s="2"/>
+      <c r="B198" s="2"/>
+      <c r="C198" s="2"/>
+      <c r="D198" s="2"/>
+      <c r="E198" s="2"/>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A199" s="2"/>
+      <c r="B199" s="1"/>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A200" s="2"/>
+      <c r="B200" s="2"/>
+      <c r="C200" s="2"/>
+      <c r="D200" s="2"/>
+      <c r="E200" s="2"/>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A201" s="2"/>
+      <c r="B201" s="2"/>
+      <c r="C201" s="2"/>
+      <c r="D201" s="2"/>
+      <c r="E201" s="2"/>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A202" s="2"/>
+      <c r="B202" s="2"/>
+      <c r="C202" s="2"/>
+      <c r="D202" s="2"/>
+      <c r="E202" s="2"/>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A203" s="2"/>
+      <c r="B203" s="2"/>
+      <c r="C203" s="2"/>
+      <c r="D203" s="2"/>
+      <c r="E203" s="2"/>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A204" s="2"/>
+      <c r="B204" s="2"/>
+      <c r="C204" s="2"/>
+      <c r="D204" s="2"/>
+      <c r="E204" s="2"/>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A205" s="2"/>
+      <c r="B205" s="1"/>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A206" s="2"/>
+      <c r="B206" s="2"/>
+      <c r="C206" s="2"/>
+      <c r="D206" s="2"/>
+      <c r="E206" s="2"/>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A207" s="2"/>
+      <c r="B207" s="2"/>
+      <c r="C207" s="2"/>
+      <c r="D207" s="2"/>
+      <c r="E207" s="2"/>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A208" s="2"/>
+      <c r="B208" s="2"/>
+      <c r="C208" s="2"/>
+      <c r="D208" s="2"/>
+      <c r="E208" s="2"/>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A209" s="2"/>
+      <c r="B209" s="2"/>
+      <c r="C209" s="2"/>
+      <c r="D209" s="2"/>
+      <c r="E209" s="2"/>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A210" s="2"/>
+      <c r="B210" s="2"/>
+      <c r="C210" s="2"/>
+      <c r="D210" s="2"/>
+      <c r="E210" s="2"/>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A211" s="2"/>
+      <c r="B211" s="1"/>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A212" s="2"/>
+      <c r="B212" s="2"/>
+      <c r="C212" s="2"/>
+      <c r="D212" s="2"/>
+      <c r="E212" s="2"/>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A213" s="2"/>
+      <c r="B213" s="2"/>
+      <c r="C213" s="2"/>
+      <c r="D213" s="2"/>
+      <c r="E213" s="2"/>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A214" s="2"/>
+      <c r="B214" s="2"/>
+      <c r="C214" s="2"/>
+      <c r="D214" s="2"/>
+      <c r="E214" s="2"/>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A215" s="2"/>
+      <c r="B215" s="2"/>
+      <c r="C215" s="2"/>
+      <c r="D215" s="2"/>
+      <c r="E215" s="2"/>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A216" s="2"/>
+      <c r="B216" s="2"/>
+      <c r="C216" s="2"/>
+      <c r="D216" s="2"/>
+      <c r="E216" s="2"/>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A217" s="2"/>
+      <c r="B217" s="1"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A218" s="2"/>
+      <c r="B218" s="2"/>
+      <c r="C218" s="2"/>
+      <c r="D218" s="2"/>
+      <c r="E218" s="2"/>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A219" s="2"/>
+      <c r="B219" s="2"/>
+      <c r="C219" s="2"/>
+      <c r="D219" s="2"/>
+      <c r="E219" s="2"/>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A220" s="2"/>
+      <c r="B220" s="2"/>
+      <c r="C220" s="2"/>
+      <c r="D220" s="2"/>
+      <c r="E220" s="2"/>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A221" s="2"/>
+      <c r="B221" s="2"/>
+      <c r="C221" s="2"/>
+      <c r="D221" s="2"/>
+      <c r="E221" s="2"/>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A222" s="2"/>
+      <c r="B222" s="2"/>
+      <c r="C222" s="2"/>
+      <c r="D222" s="2"/>
+      <c r="E222" s="2"/>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A223" s="2"/>
+      <c r="B223" s="1"/>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A224" s="2"/>
+      <c r="B224" s="2"/>
+      <c r="C224" s="2"/>
+      <c r="D224" s="2"/>
+      <c r="E224" s="2"/>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A225" s="2"/>
+      <c r="B225" s="2"/>
+      <c r="C225" s="2"/>
+      <c r="D225" s="2"/>
+      <c r="E225" s="2"/>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A226" s="2"/>
+      <c r="B226" s="2"/>
+      <c r="C226" s="2"/>
+      <c r="D226" s="2"/>
+      <c r="E226" s="2"/>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A227" s="2"/>
+      <c r="B227" s="2"/>
+      <c r="C227" s="2"/>
+      <c r="D227" s="2"/>
+      <c r="E227" s="2"/>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A228" s="2"/>
+      <c r="B228" s="2"/>
+      <c r="C228" s="2"/>
+      <c r="D228" s="2"/>
+      <c r="E228" s="2"/>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A229" s="2"/>
+      <c r="B229" s="1"/>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A230" s="2"/>
+      <c r="B230" s="2"/>
+      <c r="C230" s="2"/>
+      <c r="D230" s="2"/>
+      <c r="E230" s="2"/>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A231" s="2"/>
+      <c r="B231" s="2"/>
+      <c r="C231" s="2"/>
+      <c r="D231" s="2"/>
+      <c r="E231" s="2"/>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A232" s="2"/>
+      <c r="B232" s="2"/>
+      <c r="C232" s="2"/>
+      <c r="D232" s="2"/>
+      <c r="E232" s="2"/>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A233" s="2"/>
+      <c r="B233" s="2"/>
+      <c r="C233" s="2"/>
+      <c r="D233" s="2"/>
+      <c r="E233" s="2"/>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A234" s="2"/>
+      <c r="B234" s="2"/>
+      <c r="C234" s="2"/>
+      <c r="D234" s="2"/>
+      <c r="E234" s="2"/>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A235" s="2"/>
+      <c r="B235" s="1"/>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A236" s="2"/>
+      <c r="B236" s="2"/>
+      <c r="C236" s="2"/>
+      <c r="D236" s="2"/>
+      <c r="E236" s="2"/>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A237" s="2"/>
+      <c r="B237" s="2"/>
+      <c r="C237" s="2"/>
+      <c r="D237" s="2"/>
+      <c r="E237" s="2"/>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A238" s="2"/>
+      <c r="B238" s="2"/>
+      <c r="C238" s="2"/>
+      <c r="D238" s="2"/>
+      <c r="E238" s="2"/>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A239" s="2"/>
+      <c r="B239" s="2"/>
+      <c r="C239" s="2"/>
+      <c r="D239" s="2"/>
+      <c r="E239" s="2"/>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A240" s="2"/>
+      <c r="B240" s="2"/>
+      <c r="C240" s="2"/>
+      <c r="D240" s="2"/>
+      <c r="E240" s="2"/>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A241" s="2"/>
+      <c r="B241" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/Excel/ExcelData.xlsx
+++ b/Assets/Excel/ExcelData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2024\GitHub\FreeSummerFes\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E6286E-E58C-4713-803F-AA3D991E4AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CC7760-6F81-423A-8D2D-70B28DADC0F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gun" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>id</t>
   </si>
@@ -100,6 +100,29 @@
   <si>
     <t>minPrice</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bulletName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ToyGunBullet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WaterGunBullet</t>
+  </si>
+  <si>
+    <t>CorkGunBullet</t>
+  </si>
+  <si>
+    <t>AirGunBullet</t>
+  </si>
+  <si>
+    <t>RichAirGunBullet</t>
+  </si>
+  <si>
+    <t>PistolBullet</t>
   </si>
 </sst>
 </file>
@@ -472,8 +495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J241"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -483,7 +506,8 @@
     <col min="3" max="3" width="11.5"/>
     <col min="4" max="4" width="18.125" customWidth="1"/>
     <col min="5" max="5" width="15.75" customWidth="1"/>
-    <col min="6" max="1025" width="8.625" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="7" max="1025" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -502,7 +526,9 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -524,7 +550,9 @@
       <c r="E2" s="2">
         <v>3</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -546,6 +574,9 @@
       <c r="E3">
         <v>30</v>
       </c>
+      <c r="F3" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
@@ -563,7 +594,9 @@
       <c r="E4" s="2">
         <v>5</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -585,7 +618,9 @@
       <c r="E5" s="2">
         <v>20</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -607,7 +642,9 @@
       <c r="E6" s="2">
         <v>10</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -621,7 +658,7 @@
         <v>15</v>
       </c>
       <c r="C7">
-        <v>3000</v>
+        <v>30000</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
@@ -629,7 +666,9 @@
       <c r="E7" s="2">
         <v>6</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -3134,7 +3173,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3142,8 +3181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D6D1368-AF3F-4A25-AF55-E2182341AA03}">
   <dimension ref="A1:F241"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3153,7 +3192,7 @@
     <col min="3" max="3" width="17.625" customWidth="1"/>
     <col min="4" max="4" width="11.25" customWidth="1"/>
     <col min="5" max="5" width="15.75" customWidth="1"/>
-    <col min="6" max="6" width="9.125" customWidth="1"/>
+    <col min="6" max="6" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
